--- a/src/test/resources/Run_Manager_Full_Booking_Journey.xlsx
+++ b/src/test/resources/Run_Manager_Full_Booking_Journey.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\SaknaiNewEnv\SAKANI_TST_NEW\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\SAKANI_TST_R1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CA1829-7E7F-4842-892D-D305C0C66BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058E9D3B-FD49-4614-84EA-1975E94AAE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
     <sheet name="Full_Booking_Journey" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="666">
   <si>
     <t>P_Key</t>
   </si>
@@ -1050,6 +1049,9 @@
     <t>Secondary_Title</t>
   </si>
   <si>
+    <t>Project_Name_lessThan5_Digits</t>
+  </si>
+  <si>
     <t>Project_Type_EN</t>
   </si>
   <si>
@@ -1065,6 +1067,9 @@
     <t>Testing project</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>Offplan MOH land</t>
   </si>
   <si>
@@ -1080,9 +1085,6 @@
     <t>Makkah</t>
   </si>
   <si>
-    <t>مكة المكرمة</t>
-  </si>
-  <si>
     <t>City_EN</t>
   </si>
   <si>
@@ -1269,6 +1271,15 @@
     <t>Extend_Price_Quotation_Fee</t>
   </si>
   <si>
+    <t>Extend_Price_Quotation_Day_Invalid</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Extend_Price_Quotation_Fee_Invalid</t>
+  </si>
+  <si>
     <t>Building_Permit_Period</t>
   </si>
   <si>
@@ -1332,6 +1343,9 @@
     <t>Word_Attachment</t>
   </si>
   <si>
+    <t>/src/main/resources/Sample word file .docx</t>
+  </si>
+  <si>
     <t>Booking_Template_Type_EN</t>
   </si>
   <si>
@@ -1402,9 +1416,6 @@
   </si>
   <si>
     <t>Developer approves the Sale contract from Partners portal</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
   <si>
     <t>Full_Booking_Journey~user</t>
@@ -2043,6 +2054,15 @@
     <t>4464040000000007</t>
   </si>
   <si>
+    <t>07/24</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Test name</t>
   </si>
   <si>
@@ -2058,41 +2078,37 @@
     <t>Executed</t>
   </si>
   <si>
-    <t>10/25</t>
-  </si>
-  <si>
-    <t>996</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>https://test-admin-sakani.housingapps.sa/</t>
-  </si>
-  <si>
-    <t>https://test-sakani.housingapps.sa/</t>
+    <t>/src/main/resources/units/Offplan_MOH.xlsx</t>
+  </si>
+  <si>
+    <t>https://test-sakani.housingapps.sa</t>
+  </si>
+  <si>
+    <t>https://test-partners-sakani.housingapps.sa</t>
+  </si>
+  <si>
+    <t>https://test-admin-sakani.housingapps.sa</t>
+  </si>
+  <si>
+    <t>Aa123456@</t>
+  </si>
+  <si>
+    <t>1076196383</t>
   </si>
   <si>
     <t>super_admin@test1-admin-sakani.housingapps.sa</t>
   </si>
   <si>
-    <t>JEDDAH</t>
-  </si>
-  <si>
-    <t>جدة</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bank خلود النابلسي 1718704266
+ 'Bank خلود النابلسي 1718704266Bank خلود النابلسي 1718704266
+ Bank خلود النابلسي 1718704266
  </t>
   </si>
   <si>
-    <t>/src/main/resources/units/Offplan_MOH.xlsx</t>
-  </si>
-  <si>
-    <t>/src/main/resources/Sample word file.docx</t>
-  </si>
-  <si>
-    <t>https://test-partners-sakani.housingapps.sa/auth</t>
+    <t>الخرج</t>
+  </si>
+  <si>
+    <t>الرياض</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2201,14 +2217,8 @@
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2235,6 +2245,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2249,7 +2272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2308,22 +2331,31 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2769,8 +2801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView topLeftCell="D30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M138" sqref="M138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2828,7 +2860,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2861,7 +2893,7 @@
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="9"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
@@ -2900,7 +2932,7 @@
       <c r="L3" s="4">
         <v>1</v>
       </c>
-      <c r="M3" s="12"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
@@ -2939,7 +2971,7 @@
       <c r="L4" s="4">
         <v>2</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
@@ -2972,13 +3004,13 @@
       <c r="J5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>455</v>
+      <c r="K5" s="12">
+        <v>1</v>
       </c>
       <c r="L5" s="4">
         <v>3</v>
       </c>
-      <c r="M5" s="12"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
@@ -3017,7 +3049,7 @@
       <c r="L6" s="4">
         <v>4</v>
       </c>
-      <c r="M6" s="12"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -3056,7 +3088,7 @@
       <c r="L7" s="4">
         <v>5</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
@@ -3095,7 +3127,7 @@
       <c r="L8" s="4">
         <v>6</v>
       </c>
-      <c r="M8" s="12"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -3134,7 +3166,7 @@
       <c r="L9" s="4">
         <v>7</v>
       </c>
-      <c r="M9" s="12"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -3173,7 +3205,7 @@
       <c r="L10" s="4">
         <v>8</v>
       </c>
-      <c r="M10" s="12"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
@@ -3212,7 +3244,7 @@
       <c r="L11" s="4">
         <v>9</v>
       </c>
-      <c r="M11" s="12"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -3251,7 +3283,7 @@
       <c r="L12" s="4">
         <v>10</v>
       </c>
-      <c r="M12" s="12"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -3290,7 +3322,7 @@
       <c r="L13" s="4">
         <v>11</v>
       </c>
-      <c r="M13" s="12"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -3329,7 +3361,7 @@
       <c r="L14" s="4">
         <v>12</v>
       </c>
-      <c r="M14" s="12"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
@@ -3368,7 +3400,7 @@
       <c r="L15" s="4">
         <v>13</v>
       </c>
-      <c r="M15" s="12"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -3407,7 +3439,7 @@
       <c r="L16" s="4">
         <v>14</v>
       </c>
-      <c r="M16" s="12"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
@@ -3446,7 +3478,7 @@
       <c r="L17" s="4">
         <v>15</v>
       </c>
-      <c r="M17" s="12"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
@@ -3485,7 +3517,7 @@
       <c r="L18" s="4">
         <v>16</v>
       </c>
-      <c r="M18" s="12"/>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -3524,7 +3556,7 @@
       <c r="L19" s="4">
         <v>17</v>
       </c>
-      <c r="M19" s="12"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
@@ -3563,7 +3595,7 @@
       <c r="L20" s="4">
         <v>18</v>
       </c>
-      <c r="M20" s="12"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
@@ -3602,7 +3634,7 @@
       <c r="L21" s="4">
         <v>19</v>
       </c>
-      <c r="M21" s="12"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -3641,7 +3673,7 @@
       <c r="L22" s="4">
         <v>20</v>
       </c>
-      <c r="M22" s="12"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
@@ -3680,7 +3712,7 @@
       <c r="L23" s="4">
         <v>21</v>
       </c>
-      <c r="M23" s="12"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
@@ -3719,7 +3751,7 @@
       <c r="L24" s="4">
         <v>22</v>
       </c>
-      <c r="M24" s="12"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
@@ -3758,7 +3790,7 @@
       <c r="L25" s="4">
         <v>23</v>
       </c>
-      <c r="M25" s="12"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
@@ -3797,7 +3829,7 @@
       <c r="L26" s="4">
         <v>24</v>
       </c>
-      <c r="M26" s="12"/>
+      <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
@@ -3836,7 +3868,7 @@
       <c r="L27" s="4">
         <v>25</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
@@ -3875,7 +3907,7 @@
       <c r="L28" s="4">
         <v>26</v>
       </c>
-      <c r="M28" s="12"/>
+      <c r="M28" s="22"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
@@ -3914,7 +3946,7 @@
       <c r="L29" s="4">
         <v>27</v>
       </c>
-      <c r="M29" s="12"/>
+      <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
@@ -3953,7 +3985,7 @@
       <c r="L30" s="4">
         <v>28</v>
       </c>
-      <c r="M30" s="12"/>
+      <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
@@ -3992,7 +4024,7 @@
       <c r="L31" s="4">
         <v>29</v>
       </c>
-      <c r="M31" s="12"/>
+      <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
@@ -4031,7 +4063,7 @@
       <c r="L32" s="4">
         <v>30</v>
       </c>
-      <c r="M32" s="12"/>
+      <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
@@ -4070,7 +4102,7 @@
       <c r="L33" s="4">
         <v>31</v>
       </c>
-      <c r="M33" s="12"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
@@ -4109,7 +4141,7 @@
       <c r="L34" s="4">
         <v>32</v>
       </c>
-      <c r="M34" s="12"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
@@ -4148,7 +4180,7 @@
       <c r="L35" s="4">
         <v>33</v>
       </c>
-      <c r="M35" s="12"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
@@ -4187,7 +4219,7 @@
       <c r="L36" s="4">
         <v>34</v>
       </c>
-      <c r="M36" s="12"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -4226,7 +4258,7 @@
       <c r="L37" s="4">
         <v>35</v>
       </c>
-      <c r="M37" s="12"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -4265,7 +4297,7 @@
       <c r="L38" s="4">
         <v>36</v>
       </c>
-      <c r="M38" s="12"/>
+      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
@@ -4304,7 +4336,7 @@
       <c r="L39" s="4">
         <v>37</v>
       </c>
-      <c r="M39" s="12"/>
+      <c r="M39" s="22"/>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -4343,7 +4375,7 @@
       <c r="L40" s="4">
         <v>38</v>
       </c>
-      <c r="M40" s="12"/>
+      <c r="M40" s="22"/>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
@@ -4382,7 +4414,7 @@
       <c r="L41" s="4">
         <v>39</v>
       </c>
-      <c r="M41" s="12"/>
+      <c r="M41" s="22"/>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
@@ -4421,7 +4453,7 @@
       <c r="L42" s="4">
         <v>40</v>
       </c>
-      <c r="M42" s="12"/>
+      <c r="M42" s="22"/>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
@@ -4460,7 +4492,7 @@
       <c r="L43" s="4">
         <v>41</v>
       </c>
-      <c r="M43" s="12"/>
+      <c r="M43" s="22"/>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
@@ -4491,7 +4523,7 @@
         <v>23</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K44" s="12">
         <v>1</v>
@@ -4499,7 +4531,7 @@
       <c r="L44" s="4">
         <v>42</v>
       </c>
-      <c r="M44" s="12"/>
+      <c r="M44" s="22"/>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
@@ -4530,7 +4562,7 @@
         <v>23</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K45" s="12">
         <v>1</v>
@@ -4538,7 +4570,7 @@
       <c r="L45" s="4">
         <v>43</v>
       </c>
-      <c r="M45" s="12"/>
+      <c r="M45" s="22"/>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
@@ -4569,7 +4601,7 @@
         <v>23</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K46" s="12">
         <v>1</v>
@@ -4577,7 +4609,7 @@
       <c r="L46" s="4">
         <v>44</v>
       </c>
-      <c r="M46" s="12"/>
+      <c r="M46" s="22"/>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
@@ -4608,7 +4640,7 @@
         <v>23</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K47" s="12">
         <v>1</v>
@@ -4616,7 +4648,7 @@
       <c r="L47" s="4">
         <v>45</v>
       </c>
-      <c r="M47" s="12"/>
+      <c r="M47" s="22"/>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
@@ -4647,7 +4679,7 @@
         <v>23</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K48" s="12">
         <v>1</v>
@@ -4655,7 +4687,7 @@
       <c r="L48" s="4">
         <v>46</v>
       </c>
-      <c r="M48" s="12"/>
+      <c r="M48" s="22"/>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
@@ -4686,7 +4718,7 @@
         <v>23</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K49" s="12">
         <v>1</v>
@@ -4694,7 +4726,7 @@
       <c r="L49" s="4">
         <v>47</v>
       </c>
-      <c r="M49" s="12"/>
+      <c r="M49" s="22"/>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
@@ -4725,7 +4757,7 @@
         <v>23</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K50" s="12">
         <v>1</v>
@@ -4733,7 +4765,7 @@
       <c r="L50" s="4">
         <v>48</v>
       </c>
-      <c r="M50" s="12"/>
+      <c r="M50" s="22"/>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
@@ -4764,7 +4796,7 @@
         <v>23</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K51" s="12">
         <v>1</v>
@@ -4772,7 +4804,7 @@
       <c r="L51" s="4">
         <v>49</v>
       </c>
-      <c r="M51" s="12"/>
+      <c r="M51" s="22"/>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
@@ -4803,7 +4835,7 @@
         <v>23</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K52" s="12">
         <v>1</v>
@@ -4811,7 +4843,7 @@
       <c r="L52" s="4">
         <v>50</v>
       </c>
-      <c r="M52" s="12"/>
+      <c r="M52" s="22"/>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
@@ -4842,7 +4874,7 @@
         <v>23</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K53" s="12">
         <v>1</v>
@@ -4850,7 +4882,7 @@
       <c r="L53" s="4">
         <v>51</v>
       </c>
-      <c r="M53" s="12"/>
+      <c r="M53" s="22"/>
     </row>
     <row r="54" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
@@ -4881,7 +4913,7 @@
         <v>23</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K54" s="12">
         <v>1</v>
@@ -4889,7 +4921,7 @@
       <c r="L54" s="4">
         <v>52</v>
       </c>
-      <c r="M54" s="12"/>
+      <c r="M54" s="22"/>
     </row>
     <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
@@ -4920,7 +4952,7 @@
         <v>23</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K55" s="12">
         <v>1</v>
@@ -4928,7 +4960,7 @@
       <c r="L55" s="4">
         <v>53</v>
       </c>
-      <c r="M55" s="12"/>
+      <c r="M55" s="22"/>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
@@ -4959,7 +4991,7 @@
         <v>23</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K56" s="12">
         <v>1</v>
@@ -4967,7 +4999,7 @@
       <c r="L56" s="4">
         <v>54</v>
       </c>
-      <c r="M56" s="12"/>
+      <c r="M56" s="22"/>
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
@@ -4998,7 +5030,7 @@
         <v>23</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K57" s="12">
         <v>1</v>
@@ -5006,7 +5038,7 @@
       <c r="L57" s="4">
         <v>55</v>
       </c>
-      <c r="M57" s="12"/>
+      <c r="M57" s="22"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
@@ -5037,7 +5069,7 @@
         <v>23</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K58" s="12">
         <v>1</v>
@@ -5045,7 +5077,7 @@
       <c r="L58" s="4">
         <v>56</v>
       </c>
-      <c r="M58" s="12"/>
+      <c r="M58" s="22"/>
     </row>
     <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
@@ -5076,7 +5108,7 @@
         <v>23</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K59" s="12">
         <v>1</v>
@@ -5084,7 +5116,7 @@
       <c r="L59" s="4">
         <v>57</v>
       </c>
-      <c r="M59" s="12"/>
+      <c r="M59" s="22"/>
     </row>
     <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
@@ -5115,7 +5147,7 @@
         <v>23</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K60" s="12">
         <v>1</v>
@@ -5123,7 +5155,7 @@
       <c r="L60" s="4">
         <v>58</v>
       </c>
-      <c r="M60" s="12"/>
+      <c r="M60" s="22"/>
     </row>
     <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
@@ -5154,7 +5186,7 @@
         <v>23</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K61" s="12">
         <v>1</v>
@@ -5162,7 +5194,7 @@
       <c r="L61" s="4">
         <v>59</v>
       </c>
-      <c r="M61" s="12"/>
+      <c r="M61" s="22"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
@@ -5193,7 +5225,7 @@
         <v>23</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K62" s="12">
         <v>1</v>
@@ -5201,7 +5233,7 @@
       <c r="L62" s="4">
         <v>60</v>
       </c>
-      <c r="M62" s="12"/>
+      <c r="M62" s="22"/>
     </row>
     <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
@@ -5213,7 +5245,7 @@
       <c r="C63" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="11" t="s">
         <v>205</v>
       </c>
       <c r="E63" s="11" t="s">
@@ -5232,7 +5264,7 @@
         <v>23</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K63" s="12">
         <v>1</v>
@@ -5240,7 +5272,7 @@
       <c r="L63" s="4">
         <v>61</v>
       </c>
-      <c r="M63" s="12"/>
+      <c r="M63" s="22"/>
     </row>
     <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
@@ -5252,7 +5284,7 @@
       <c r="C64" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="11" t="s">
         <v>202</v>
       </c>
       <c r="E64" s="11" t="s">
@@ -5271,7 +5303,7 @@
         <v>23</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K64" s="12">
         <v>1</v>
@@ -5279,7 +5311,7 @@
       <c r="L64" s="4">
         <v>62</v>
       </c>
-      <c r="M64" s="12"/>
+      <c r="M64" s="22"/>
     </row>
     <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
@@ -5289,10 +5321,10 @@
         <v>17</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>448</v>
+        <v>453</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>453</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>209</v>
@@ -5310,7 +5342,7 @@
         <v>23</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K65" s="12">
         <v>1</v>
@@ -5318,7 +5350,7 @@
       <c r="L65" s="4">
         <v>63</v>
       </c>
-      <c r="M65" s="12"/>
+      <c r="M65" s="22"/>
     </row>
     <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
@@ -5330,7 +5362,7 @@
       <c r="C66" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="11" t="s">
         <v>208</v>
       </c>
       <c r="E66" s="11" t="s">
@@ -5349,7 +5381,7 @@
         <v>23</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K66" s="12">
         <v>1</v>
@@ -5357,7 +5389,7 @@
       <c r="L66" s="4">
         <v>64</v>
       </c>
-      <c r="M66" s="12"/>
+      <c r="M66" s="22"/>
     </row>
     <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
@@ -5369,7 +5401,7 @@
       <c r="C67" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E67" s="11" t="s">
@@ -5388,7 +5420,7 @@
         <v>23</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K67" s="12">
         <v>1</v>
@@ -5396,7 +5428,7 @@
       <c r="L67" s="4">
         <v>65</v>
       </c>
-      <c r="M67" s="12"/>
+      <c r="M67" s="22"/>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
@@ -5427,7 +5459,7 @@
         <v>23</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K68" s="12">
         <v>1</v>
@@ -5435,7 +5467,7 @@
       <c r="L68" s="4">
         <v>66</v>
       </c>
-      <c r="M68" s="12"/>
+      <c r="M68" s="22"/>
     </row>
     <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
@@ -5466,7 +5498,7 @@
         <v>23</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K69" s="12">
         <v>1</v>
@@ -5474,7 +5506,7 @@
       <c r="L69" s="4">
         <v>67</v>
       </c>
-      <c r="M69" s="12"/>
+      <c r="M69" s="22"/>
     </row>
     <row r="70" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
@@ -5486,7 +5518,7 @@
       <c r="C70" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="11" t="s">
         <v>225</v>
       </c>
       <c r="E70" s="11" t="s">
@@ -5505,7 +5537,7 @@
         <v>23</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K70" s="12">
         <v>1</v>
@@ -5513,7 +5545,7 @@
       <c r="L70" s="4">
         <v>68</v>
       </c>
-      <c r="M70" s="12"/>
+      <c r="M70" s="22"/>
     </row>
     <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
@@ -5525,7 +5557,7 @@
       <c r="C71" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="11" t="s">
         <v>222</v>
       </c>
       <c r="E71" s="11" t="s">
@@ -5544,7 +5576,7 @@
         <v>23</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K71" s="12">
         <v>1</v>
@@ -5552,7 +5584,7 @@
       <c r="L71" s="4">
         <v>69</v>
       </c>
-      <c r="M71" s="12"/>
+      <c r="M71" s="22"/>
     </row>
     <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
@@ -5564,7 +5596,7 @@
       <c r="C72" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="11" t="s">
         <v>230</v>
       </c>
       <c r="E72" s="11" t="s">
@@ -5583,7 +5615,7 @@
         <v>23</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K72" s="12">
         <v>1</v>
@@ -5591,7 +5623,7 @@
       <c r="L72" s="4">
         <v>70</v>
       </c>
-      <c r="M72" s="12"/>
+      <c r="M72" s="22"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
@@ -5601,10 +5633,10 @@
         <v>17</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>449</v>
+        <v>454</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>454</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>231</v>
@@ -5622,7 +5654,7 @@
         <v>23</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K73" s="12">
         <v>1</v>
@@ -5630,7 +5662,7 @@
       <c r="L73" s="4">
         <v>71</v>
       </c>
-      <c r="M73" s="12"/>
+      <c r="M73" s="22"/>
     </row>
     <row r="74" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
@@ -5642,7 +5674,7 @@
       <c r="C74" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="11" t="s">
         <v>235</v>
       </c>
       <c r="E74" s="11" t="s">
@@ -5661,7 +5693,7 @@
         <v>23</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K74" s="12">
         <v>1</v>
@@ -5669,7 +5701,7 @@
       <c r="L74" s="4">
         <v>72</v>
       </c>
-      <c r="M74" s="12"/>
+      <c r="M74" s="22"/>
     </row>
     <row r="75" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
@@ -5679,10 +5711,10 @@
         <v>17</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>450</v>
+        <v>455</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>455</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>236</v>
@@ -5700,7 +5732,7 @@
         <v>23</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K75" s="12">
         <v>1</v>
@@ -5708,7 +5740,7 @@
       <c r="L75" s="4">
         <v>73</v>
       </c>
-      <c r="M75" s="12"/>
+      <c r="M75" s="22"/>
     </row>
     <row r="76" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
@@ -5720,7 +5752,7 @@
       <c r="C76" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="11" t="s">
         <v>238</v>
       </c>
       <c r="E76" s="11" t="s">
@@ -5739,7 +5771,7 @@
         <v>23</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K76" s="12">
         <v>1</v>
@@ -5747,7 +5779,7 @@
       <c r="L76" s="4">
         <v>74</v>
       </c>
-      <c r="M76" s="12"/>
+      <c r="M76" s="22"/>
     </row>
     <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
@@ -5759,7 +5791,7 @@
       <c r="C77" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="11" t="s">
         <v>241</v>
       </c>
       <c r="E77" s="11" t="s">
@@ -5778,7 +5810,7 @@
         <v>23</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K77" s="12">
         <v>1</v>
@@ -5786,7 +5818,7 @@
       <c r="L77" s="4">
         <v>75</v>
       </c>
-      <c r="M77" s="12"/>
+      <c r="M77" s="22"/>
     </row>
     <row r="78" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
@@ -5817,7 +5849,7 @@
         <v>23</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K78" s="12">
         <v>1</v>
@@ -5825,7 +5857,7 @@
       <c r="L78" s="4">
         <v>76</v>
       </c>
-      <c r="M78" s="12"/>
+      <c r="M78" s="22"/>
     </row>
     <row r="79" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
@@ -5837,7 +5869,7 @@
       <c r="C79" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="11" t="s">
         <v>247</v>
       </c>
       <c r="E79" s="11" t="s">
@@ -5856,7 +5888,7 @@
         <v>23</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K79" s="12">
         <v>1</v>
@@ -5864,7 +5896,7 @@
       <c r="L79" s="4">
         <v>77</v>
       </c>
-      <c r="M79" s="12"/>
+      <c r="M79" s="22"/>
     </row>
     <row r="80" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
@@ -5895,7 +5927,7 @@
         <v>23</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K80" s="12">
         <v>1</v>
@@ -5903,7 +5935,7 @@
       <c r="L80" s="4">
         <v>78</v>
       </c>
-      <c r="M80" s="12"/>
+      <c r="M80" s="22"/>
     </row>
     <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
@@ -5915,7 +5947,7 @@
       <c r="C81" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="26" t="s">
+      <c r="D81" s="11" t="s">
         <v>253</v>
       </c>
       <c r="E81" s="11" t="s">
@@ -5934,7 +5966,7 @@
         <v>23</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K81" s="12">
         <v>1</v>
@@ -5942,7 +5974,7 @@
       <c r="L81" s="4">
         <v>79</v>
       </c>
-      <c r="M81" s="12"/>
+      <c r="M81" s="22"/>
     </row>
     <row r="82" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
@@ -5973,7 +6005,7 @@
         <v>23</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K82" s="12">
         <v>1</v>
@@ -5981,7 +6013,7 @@
       <c r="L82" s="4">
         <v>80</v>
       </c>
-      <c r="M82" s="12"/>
+      <c r="M82" s="22"/>
     </row>
     <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
@@ -5993,7 +6025,7 @@
       <c r="C83" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="11" t="s">
         <v>259</v>
       </c>
       <c r="E83" s="11" t="s">
@@ -6012,7 +6044,7 @@
         <v>23</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K83" s="12">
         <v>1</v>
@@ -6020,7 +6052,7 @@
       <c r="L83" s="4">
         <v>81</v>
       </c>
-      <c r="M83" s="12"/>
+      <c r="M83" s="22"/>
     </row>
     <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
@@ -6051,7 +6083,7 @@
         <v>23</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K84" s="12">
         <v>1</v>
@@ -6059,7 +6091,7 @@
       <c r="L84" s="4">
         <v>82</v>
       </c>
-      <c r="M84" s="12"/>
+      <c r="M84" s="22"/>
     </row>
     <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
@@ -6071,7 +6103,7 @@
       <c r="C85" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D85" s="11" t="s">
         <v>265</v>
       </c>
       <c r="E85" s="11" t="s">
@@ -6090,7 +6122,7 @@
         <v>23</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K85" s="12">
         <v>1</v>
@@ -6098,7 +6130,7 @@
       <c r="L85" s="4">
         <v>83</v>
       </c>
-      <c r="M85" s="12"/>
+      <c r="M85" s="22"/>
     </row>
     <row r="86" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
@@ -6129,7 +6161,7 @@
         <v>23</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K86" s="12">
         <v>1</v>
@@ -6137,7 +6169,7 @@
       <c r="L86" s="4">
         <v>84</v>
       </c>
-      <c r="M86" s="12"/>
+      <c r="M86" s="22"/>
     </row>
     <row r="87" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
@@ -6168,7 +6200,7 @@
         <v>23</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K87" s="12">
         <v>1</v>
@@ -6176,7 +6208,7 @@
       <c r="L87" s="4">
         <v>85</v>
       </c>
-      <c r="M87" s="12"/>
+      <c r="M87" s="22"/>
     </row>
     <row r="88" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
@@ -6207,7 +6239,7 @@
         <v>23</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K88" s="12">
         <v>1</v>
@@ -6215,7 +6247,7 @@
       <c r="L88" s="4">
         <v>86</v>
       </c>
-      <c r="M88" s="12"/>
+      <c r="M88" s="22"/>
     </row>
     <row r="89" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
@@ -6227,7 +6259,7 @@
       <c r="C89" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D89" s="26" t="s">
+      <c r="D89" s="11" t="s">
         <v>277</v>
       </c>
       <c r="E89" s="11" t="s">
@@ -6246,7 +6278,7 @@
         <v>23</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K89" s="12">
         <v>1</v>
@@ -6254,7 +6286,7 @@
       <c r="L89" s="4">
         <v>87</v>
       </c>
-      <c r="M89" s="12"/>
+      <c r="M89" s="22"/>
     </row>
     <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
@@ -6266,7 +6298,7 @@
       <c r="C90" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D90" s="11" t="s">
         <v>280</v>
       </c>
       <c r="E90" s="11" t="s">
@@ -6285,7 +6317,7 @@
         <v>23</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K90" s="12">
         <v>1</v>
@@ -6293,7 +6325,7 @@
       <c r="L90" s="4">
         <v>88</v>
       </c>
-      <c r="M90" s="12"/>
+      <c r="M90" s="22"/>
     </row>
     <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
@@ -6305,7 +6337,7 @@
       <c r="C91" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="11" t="s">
         <v>283</v>
       </c>
       <c r="E91" s="11" t="s">
@@ -6324,7 +6356,7 @@
         <v>23</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K91" s="12">
         <v>1</v>
@@ -6332,7 +6364,7 @@
       <c r="L91" s="4">
         <v>89</v>
       </c>
-      <c r="M91" s="12"/>
+      <c r="M91" s="22"/>
     </row>
     <row r="92" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
@@ -6344,7 +6376,7 @@
       <c r="C92" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D92" s="26" t="s">
+      <c r="D92" s="11" t="s">
         <v>286</v>
       </c>
       <c r="E92" s="11" t="s">
@@ -6363,7 +6395,7 @@
         <v>23</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K92" s="12">
         <v>1</v>
@@ -6371,7 +6403,7 @@
       <c r="L92" s="4">
         <v>90</v>
       </c>
-      <c r="M92" s="12"/>
+      <c r="M92" s="22"/>
     </row>
     <row r="93" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
@@ -6402,7 +6434,7 @@
         <v>23</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K93" s="12">
         <v>1</v>
@@ -6410,7 +6442,7 @@
       <c r="L93" s="4">
         <v>91</v>
       </c>
-      <c r="M93" s="12"/>
+      <c r="M93" s="22"/>
     </row>
     <row r="94" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
@@ -6441,7 +6473,7 @@
         <v>23</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K94" s="12">
         <v>1</v>
@@ -6449,7 +6481,7 @@
       <c r="L94" s="4">
         <v>92</v>
       </c>
-      <c r="M94" s="12"/>
+      <c r="M94" s="22"/>
     </row>
     <row r="95" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
@@ -6480,7 +6512,7 @@
         <v>23</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K95" s="12">
         <v>1</v>
@@ -6488,7 +6520,7 @@
       <c r="L95" s="4">
         <v>93</v>
       </c>
-      <c r="M95" s="12"/>
+      <c r="M95" s="22"/>
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
@@ -6519,7 +6551,7 @@
         <v>23</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K96" s="12">
         <v>1</v>
@@ -6527,7 +6559,7 @@
       <c r="L96" s="4">
         <v>94</v>
       </c>
-      <c r="M96" s="12"/>
+      <c r="M96" s="22"/>
     </row>
     <row r="97" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
@@ -6558,7 +6590,7 @@
         <v>23</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K97" s="12">
         <v>1</v>
@@ -6566,7 +6598,7 @@
       <c r="L97" s="4">
         <v>95</v>
       </c>
-      <c r="M97" s="12"/>
+      <c r="M97" s="22"/>
     </row>
     <row r="98" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
@@ -6576,10 +6608,10 @@
         <v>17</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>304</v>
@@ -6597,7 +6629,7 @@
         <v>23</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K98" s="12">
         <v>1</v>
@@ -6605,7 +6637,7 @@
       <c r="L98" s="4">
         <v>96</v>
       </c>
-      <c r="M98" s="12"/>
+      <c r="M98" s="22"/>
     </row>
     <row r="99" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
@@ -6636,7 +6668,7 @@
         <v>23</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K99" s="12">
         <v>1</v>
@@ -6644,7 +6676,7 @@
       <c r="L99" s="4">
         <v>97</v>
       </c>
-      <c r="M99" s="12"/>
+      <c r="M99" s="22"/>
     </row>
     <row r="100" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
@@ -6675,7 +6707,7 @@
         <v>23</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K100" s="12">
         <v>1</v>
@@ -6683,7 +6715,7 @@
       <c r="L100" s="4">
         <v>98</v>
       </c>
-      <c r="M100" s="12"/>
+      <c r="M100" s="22"/>
     </row>
     <row r="101" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
@@ -6714,7 +6746,7 @@
         <v>23</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K101" s="12">
         <v>1</v>
@@ -6722,7 +6754,7 @@
       <c r="L101" s="4">
         <v>99</v>
       </c>
-      <c r="M101" s="12"/>
+      <c r="M101" s="22"/>
     </row>
     <row r="102" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
@@ -6753,7 +6785,7 @@
         <v>23</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K102" s="12">
         <v>1</v>
@@ -6761,7 +6793,7 @@
       <c r="L102" s="4">
         <v>100</v>
       </c>
-      <c r="M102" s="12"/>
+      <c r="M102" s="22"/>
     </row>
     <row r="103" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
@@ -6792,7 +6824,7 @@
         <v>23</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K103" s="12">
         <v>1</v>
@@ -6800,7 +6832,7 @@
       <c r="L103" s="4">
         <v>101</v>
       </c>
-      <c r="M103" s="12"/>
+      <c r="M103" s="22"/>
     </row>
     <row r="104" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
@@ -6831,7 +6863,7 @@
         <v>23</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K104" s="12">
         <v>1</v>
@@ -6839,7 +6871,7 @@
       <c r="L104" s="4">
         <v>102</v>
       </c>
-      <c r="M104" s="12"/>
+      <c r="M104" s="22"/>
     </row>
     <row r="105" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
@@ -6870,7 +6902,7 @@
         <v>23</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K105" s="12">
         <v>1</v>
@@ -6878,7 +6910,7 @@
       <c r="L105" s="4">
         <v>103</v>
       </c>
-      <c r="M105" s="12"/>
+      <c r="M105" s="22"/>
     </row>
     <row r="106" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
@@ -6909,7 +6941,7 @@
         <v>23</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K106" s="12">
         <v>1</v>
@@ -6917,17 +6949,17 @@
       <c r="L106" s="4">
         <v>104</v>
       </c>
-      <c r="M106" s="12"/>
+      <c r="M106" s="22"/>
     </row>
     <row r="107" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="8" t="s">
@@ -6948,29 +6980,29 @@
       </c>
       <c r="K107" s="9"/>
       <c r="L107" s="3"/>
-      <c r="M107" s="9"/>
+      <c r="M107" s="21"/>
     </row>
     <row r="108" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>105</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H108" s="12" t="s">
         <v>22</v>
@@ -6979,7 +7011,7 @@
         <v>23</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K108" s="12">
         <v>1</v>
@@ -6987,29 +7019,29 @@
       <c r="L108" s="4">
         <v>105</v>
       </c>
-      <c r="M108" s="12"/>
+      <c r="M108" s="22"/>
     </row>
     <row r="109" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>106</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>22</v>
@@ -7018,7 +7050,7 @@
         <v>23</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K109" s="12">
         <v>1</v>
@@ -7026,17 +7058,17 @@
       <c r="L109" s="4">
         <v>106</v>
       </c>
-      <c r="M109" s="12"/>
+      <c r="M109" s="22"/>
     </row>
     <row r="110" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="8" t="s">
@@ -7057,29 +7089,29 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="3"/>
-      <c r="M110" s="9"/>
+      <c r="M110" s="21"/>
     </row>
     <row r="111" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>107</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>22</v>
@@ -7096,29 +7128,29 @@
       <c r="L111" s="4">
         <v>107</v>
       </c>
-      <c r="M111" s="12"/>
+      <c r="M111" s="22"/>
     </row>
     <row r="112" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>108</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E112" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="F112" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F112" s="11" t="s">
-        <v>456</v>
-      </c>
       <c r="G112" s="11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>22</v>
@@ -7135,29 +7167,29 @@
       <c r="L112" s="4">
         <v>108</v>
       </c>
-      <c r="M112" s="12"/>
+      <c r="M112" s="22"/>
     </row>
     <row r="113" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>109</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>22</v>
@@ -7174,29 +7206,29 @@
       <c r="L113" s="4">
         <v>109</v>
       </c>
-      <c r="M113" s="12"/>
+      <c r="M113" s="22"/>
     </row>
     <row r="114" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>110</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H114" s="12" t="s">
         <v>22</v>
@@ -7213,29 +7245,29 @@
       <c r="L114" s="4">
         <v>110</v>
       </c>
-      <c r="M114" s="12"/>
+      <c r="M114" s="22"/>
     </row>
     <row r="115" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>111</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>22</v>
@@ -7252,29 +7284,29 @@
       <c r="L115" s="4">
         <v>111</v>
       </c>
-      <c r="M115" s="12"/>
+      <c r="M115" s="22"/>
     </row>
     <row r="116" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>112</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>22</v>
@@ -7291,29 +7323,29 @@
       <c r="L116" s="4">
         <v>112</v>
       </c>
-      <c r="M116" s="12"/>
+      <c r="M116" s="22"/>
     </row>
     <row r="117" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>113</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>22</v>
@@ -7330,29 +7362,29 @@
       <c r="L117" s="4">
         <v>113</v>
       </c>
-      <c r="M117" s="12"/>
+      <c r="M117" s="22"/>
     </row>
     <row r="118" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>114</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>22</v>
@@ -7369,29 +7401,29 @@
       <c r="L118" s="4">
         <v>114</v>
       </c>
-      <c r="M118" s="12"/>
+      <c r="M118" s="22"/>
     </row>
     <row r="119" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>115</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H119" s="12" t="s">
         <v>22</v>
@@ -7408,29 +7440,29 @@
       <c r="L119" s="4">
         <v>115</v>
       </c>
-      <c r="M119" s="12"/>
+      <c r="M119" s="22"/>
     </row>
     <row r="120" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <v>116</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H120" s="12" t="s">
         <v>22</v>
@@ -7447,29 +7479,29 @@
       <c r="L120" s="4">
         <v>116</v>
       </c>
-      <c r="M120" s="12"/>
+      <c r="M120" s="22"/>
     </row>
     <row r="121" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>117</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H121" s="12" t="s">
         <v>22</v>
@@ -7486,29 +7518,29 @@
       <c r="L121" s="4">
         <v>117</v>
       </c>
-      <c r="M121" s="12"/>
+      <c r="M121" s="22"/>
     </row>
     <row r="122" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
         <v>118</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>22</v>
@@ -7525,29 +7557,29 @@
       <c r="L122" s="4">
         <v>118</v>
       </c>
-      <c r="M122" s="12"/>
+      <c r="M122" s="22"/>
     </row>
     <row r="123" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>119</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H123" s="12" t="s">
         <v>22</v>
@@ -7564,29 +7596,29 @@
       <c r="L123" s="4">
         <v>119</v>
       </c>
-      <c r="M123" s="12"/>
+      <c r="M123" s="22"/>
     </row>
     <row r="124" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <v>120</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="H124" s="12" t="s">
         <v>22</v>
@@ -7603,29 +7635,29 @@
       <c r="L124" s="4">
         <v>120</v>
       </c>
-      <c r="M124" s="12"/>
+      <c r="M124" s="22"/>
     </row>
     <row r="125" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>121</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>22</v>
@@ -7642,29 +7674,29 @@
       <c r="L125" s="4">
         <v>121</v>
       </c>
-      <c r="M125" s="12"/>
+      <c r="M125" s="22"/>
     </row>
     <row r="126" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <v>122</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H126" s="12" t="s">
         <v>22</v>
@@ -7681,29 +7713,29 @@
       <c r="L126" s="4">
         <v>122</v>
       </c>
-      <c r="M126" s="12"/>
+      <c r="M126" s="22"/>
     </row>
     <row r="127" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
         <v>123</v>
       </c>
       <c r="B127" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="C127" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>514</v>
-      </c>
       <c r="F127" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>22</v>
@@ -7720,29 +7752,29 @@
       <c r="L127" s="4">
         <v>123</v>
       </c>
-      <c r="M127" s="12"/>
+      <c r="M127" s="22"/>
     </row>
     <row r="128" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10">
         <v>124</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H128" s="12" t="s">
         <v>22</v>
@@ -7759,29 +7791,29 @@
       <c r="L128" s="4">
         <v>124</v>
       </c>
-      <c r="M128" s="12"/>
+      <c r="M128" s="22"/>
     </row>
     <row r="129" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <v>125</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>22</v>
@@ -7798,17 +7830,17 @@
       <c r="L129" s="4">
         <v>125</v>
       </c>
-      <c r="M129" s="12"/>
+      <c r="M129" s="22"/>
     </row>
     <row r="130" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="8" t="s">
@@ -7829,30 +7861,30 @@
       </c>
       <c r="K130" s="9"/>
       <c r="L130" s="3"/>
-      <c r="M130" s="9"/>
+      <c r="M130" s="21"/>
     </row>
     <row r="131" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10">
         <v>126</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C131" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G131" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>520</v>
-      </c>
       <c r="H131" s="12" t="s">
         <v>22</v>
       </c>
@@ -7860,7 +7892,7 @@
         <v>23</v>
       </c>
       <c r="J131" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K131" s="12">
         <v>1</v>
@@ -7868,8 +7900,8 @@
       <c r="L131" s="4">
         <v>126</v>
       </c>
-      <c r="M131" s="12" t="s">
-        <v>648</v>
+      <c r="M131" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7877,23 +7909,23 @@
         <v>127</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C132" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="G132" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="E132" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>521</v>
-      </c>
       <c r="H132" s="12" t="s">
         <v>22</v>
       </c>
@@ -7901,7 +7933,7 @@
         <v>23</v>
       </c>
       <c r="J132" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K132" s="12">
         <v>1</v>
@@ -7909,8 +7941,8 @@
       <c r="L132" s="4">
         <v>127</v>
       </c>
-      <c r="M132" s="12" t="s">
-        <v>648</v>
+      <c r="M132" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7918,22 +7950,22 @@
         <v>128</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>22</v>
@@ -7942,7 +7974,7 @@
         <v>23</v>
       </c>
       <c r="J133" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K133" s="12">
         <v>1</v>
@@ -7950,8 +7982,8 @@
       <c r="L133" s="4">
         <v>128</v>
       </c>
-      <c r="M133" s="12" t="s">
-        <v>648</v>
+      <c r="M133" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7959,22 +7991,22 @@
         <v>129</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>22</v>
@@ -7983,7 +8015,7 @@
         <v>23</v>
       </c>
       <c r="J134" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K134" s="12">
         <v>1</v>
@@ -7991,8 +8023,8 @@
       <c r="L134" s="4">
         <v>129</v>
       </c>
-      <c r="M134" s="12" t="s">
-        <v>648</v>
+      <c r="M134" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8000,22 +8032,22 @@
         <v>130</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H135" s="12" t="s">
         <v>22</v>
@@ -8024,7 +8056,7 @@
         <v>23</v>
       </c>
       <c r="J135" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K135" s="12">
         <v>1</v>
@@ -8032,8 +8064,8 @@
       <c r="L135" s="4">
         <v>130</v>
       </c>
-      <c r="M135" s="12" t="s">
-        <v>648</v>
+      <c r="M135" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8041,22 +8073,22 @@
         <v>131</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H136" s="12" t="s">
         <v>22</v>
@@ -8065,7 +8097,7 @@
         <v>23</v>
       </c>
       <c r="J136" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K136" s="12">
         <v>1</v>
@@ -8073,8 +8105,8 @@
       <c r="L136" s="4">
         <v>131</v>
       </c>
-      <c r="M136" s="12" t="s">
-        <v>648</v>
+      <c r="M136" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8082,22 +8114,22 @@
         <v>132</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H137" s="12" t="s">
         <v>22</v>
@@ -8106,7 +8138,7 @@
         <v>23</v>
       </c>
       <c r="J137" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K137" s="12">
         <v>1</v>
@@ -8114,8 +8146,8 @@
       <c r="L137" s="4">
         <v>132</v>
       </c>
-      <c r="M137" s="12" t="s">
-        <v>648</v>
+      <c r="M137" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8123,22 +8155,22 @@
         <v>133</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H138" s="12" t="s">
         <v>22</v>
@@ -8147,7 +8179,7 @@
         <v>23</v>
       </c>
       <c r="J138" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K138" s="12">
         <v>1</v>
@@ -8155,8 +8187,8 @@
       <c r="L138" s="4">
         <v>133</v>
       </c>
-      <c r="M138" s="24" t="s">
-        <v>645</v>
+      <c r="M138" s="27" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8164,22 +8196,22 @@
         <v>134</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H139" s="12" t="s">
         <v>22</v>
@@ -8188,7 +8220,7 @@
         <v>23</v>
       </c>
       <c r="J139" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K139" s="12">
         <v>1</v>
@@ -8196,8 +8228,8 @@
       <c r="L139" s="4">
         <v>134</v>
       </c>
-      <c r="M139" s="12" t="s">
-        <v>648</v>
+      <c r="M139" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8205,22 +8237,22 @@
         <v>135</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>22</v>
@@ -8229,7 +8261,7 @@
         <v>23</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K140" s="12">
         <v>1</v>
@@ -8237,8 +8269,8 @@
       <c r="L140" s="4">
         <v>135</v>
       </c>
-      <c r="M140" s="12" t="s">
-        <v>648</v>
+      <c r="M140" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8246,22 +8278,22 @@
         <v>136</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>22</v>
@@ -8270,7 +8302,7 @@
         <v>23</v>
       </c>
       <c r="J141" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K141" s="12">
         <v>1</v>
@@ -8278,8 +8310,8 @@
       <c r="L141" s="4">
         <v>136</v>
       </c>
-      <c r="M141" s="12" t="s">
-        <v>648</v>
+      <c r="M141" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8287,22 +8319,22 @@
         <v>137</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>22</v>
@@ -8311,7 +8343,7 @@
         <v>23</v>
       </c>
       <c r="J142" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K142" s="12">
         <v>1</v>
@@ -8319,8 +8351,8 @@
       <c r="L142" s="4">
         <v>137</v>
       </c>
-      <c r="M142" s="12" t="s">
-        <v>648</v>
+      <c r="M142" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8328,22 +8360,22 @@
         <v>138</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H143" s="12" t="s">
         <v>22</v>
@@ -8352,7 +8384,7 @@
         <v>23</v>
       </c>
       <c r="J143" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K143" s="12">
         <v>1</v>
@@ -8360,8 +8392,8 @@
       <c r="L143" s="4">
         <v>138</v>
       </c>
-      <c r="M143" s="12" t="s">
-        <v>648</v>
+      <c r="M143" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8369,22 +8401,22 @@
         <v>139</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H144" s="12" t="s">
         <v>22</v>
@@ -8393,7 +8425,7 @@
         <v>23</v>
       </c>
       <c r="J144" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K144" s="12">
         <v>1</v>
@@ -8401,19 +8433,19 @@
       <c r="L144" s="4">
         <v>139</v>
       </c>
-      <c r="M144" s="12" t="s">
-        <v>648</v>
+      <c r="M144" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="8" t="s">
@@ -8434,29 +8466,29 @@
       </c>
       <c r="K145" s="9"/>
       <c r="L145" s="3"/>
-      <c r="M145" s="9"/>
+      <c r="M145" s="21"/>
     </row>
     <row r="146" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10">
         <v>140</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H146" s="12" t="s">
         <v>22</v>
@@ -8465,7 +8497,7 @@
         <v>23</v>
       </c>
       <c r="J146" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K146" s="12">
         <v>1</v>
@@ -8473,8 +8505,8 @@
       <c r="L146" s="4">
         <v>140</v>
       </c>
-      <c r="M146" s="12" t="s">
-        <v>648</v>
+      <c r="M146" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8482,22 +8514,22 @@
         <v>141</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H147" s="12" t="s">
         <v>22</v>
@@ -8506,7 +8538,7 @@
         <v>23</v>
       </c>
       <c r="J147" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K147" s="12">
         <v>1</v>
@@ -8514,8 +8546,8 @@
       <c r="L147" s="4">
         <v>141</v>
       </c>
-      <c r="M147" s="12" t="s">
-        <v>648</v>
+      <c r="M147" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8523,22 +8555,22 @@
         <v>142</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H148" s="12" t="s">
         <v>22</v>
@@ -8547,7 +8579,7 @@
         <v>23</v>
       </c>
       <c r="J148" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K148" s="12">
         <v>1</v>
@@ -8555,8 +8587,8 @@
       <c r="L148" s="4">
         <v>142</v>
       </c>
-      <c r="M148" s="12" t="s">
-        <v>648</v>
+      <c r="M148" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8564,22 +8596,22 @@
         <v>143</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H149" s="12" t="s">
         <v>22</v>
@@ -8588,7 +8620,7 @@
         <v>23</v>
       </c>
       <c r="J149" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K149" s="12">
         <v>1</v>
@@ -8596,8 +8628,8 @@
       <c r="L149" s="4">
         <v>143</v>
       </c>
-      <c r="M149" s="12" t="s">
-        <v>648</v>
+      <c r="M149" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8605,22 +8637,22 @@
         <v>144</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H150" s="12" t="s">
         <v>22</v>
@@ -8629,7 +8661,7 @@
         <v>23</v>
       </c>
       <c r="J150" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K150" s="12">
         <v>1</v>
@@ -8637,8 +8669,8 @@
       <c r="L150" s="4">
         <v>144</v>
       </c>
-      <c r="M150" s="12" t="s">
-        <v>648</v>
+      <c r="M150" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8646,22 +8678,22 @@
         <v>145</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H151" s="12" t="s">
         <v>22</v>
@@ -8670,7 +8702,7 @@
         <v>23</v>
       </c>
       <c r="J151" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K151" s="12">
         <v>1</v>
@@ -8678,8 +8710,8 @@
       <c r="L151" s="4">
         <v>145</v>
       </c>
-      <c r="M151" s="12" t="s">
-        <v>648</v>
+      <c r="M151" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8687,22 +8719,22 @@
         <v>146</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H152" s="12" t="s">
         <v>22</v>
@@ -8711,7 +8743,7 @@
         <v>23</v>
       </c>
       <c r="J152" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K152" s="12">
         <v>1</v>
@@ -8719,8 +8751,8 @@
       <c r="L152" s="4">
         <v>146</v>
       </c>
-      <c r="M152" s="12" t="s">
-        <v>648</v>
+      <c r="M152" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8728,22 +8760,22 @@
         <v>147</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H153" s="12" t="s">
         <v>22</v>
@@ -8752,7 +8784,7 @@
         <v>23</v>
       </c>
       <c r="J153" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K153" s="12">
         <v>1</v>
@@ -8760,19 +8792,19 @@
       <c r="L153" s="4">
         <v>147</v>
       </c>
-      <c r="M153" s="12" t="s">
-        <v>648</v>
+      <c r="M153" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="8" t="s">
@@ -8793,29 +8825,29 @@
       </c>
       <c r="K154" s="9"/>
       <c r="L154" s="3"/>
-      <c r="M154" s="9"/>
+      <c r="M154" s="21"/>
     </row>
     <row r="155" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10">
         <v>148</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>22</v>
@@ -8824,7 +8856,7 @@
         <v>23</v>
       </c>
       <c r="J155" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K155" s="12">
         <v>1</v>
@@ -8832,8 +8864,8 @@
       <c r="L155" s="4">
         <v>148</v>
       </c>
-      <c r="M155" s="24" t="s">
-        <v>645</v>
+      <c r="M155" s="27" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8841,22 +8873,22 @@
         <v>149</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H156" s="12" t="s">
         <v>22</v>
@@ -8865,7 +8897,7 @@
         <v>23</v>
       </c>
       <c r="J156" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K156" s="12">
         <v>1</v>
@@ -8873,8 +8905,8 @@
       <c r="L156" s="4">
         <v>149</v>
       </c>
-      <c r="M156" s="12" t="s">
-        <v>648</v>
+      <c r="M156" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8882,22 +8914,22 @@
         <v>150</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="H157" s="12" t="s">
         <v>22</v>
@@ -8906,7 +8938,7 @@
         <v>23</v>
       </c>
       <c r="J157" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K157" s="12">
         <v>1</v>
@@ -8914,8 +8946,8 @@
       <c r="L157" s="4">
         <v>150</v>
       </c>
-      <c r="M157" s="12" t="s">
-        <v>648</v>
+      <c r="M157" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8923,22 +8955,22 @@
         <v>151</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="H158" s="12" t="s">
         <v>22</v>
@@ -8947,7 +8979,7 @@
         <v>23</v>
       </c>
       <c r="J158" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K158" s="12">
         <v>1</v>
@@ -8955,8 +8987,8 @@
       <c r="L158" s="4">
         <v>151</v>
       </c>
-      <c r="M158" s="12" t="s">
-        <v>648</v>
+      <c r="M158" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8964,22 +8996,22 @@
         <v>152</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H159" s="12" t="s">
         <v>22</v>
@@ -8988,7 +9020,7 @@
         <v>23</v>
       </c>
       <c r="J159" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K159" s="12">
         <v>1</v>
@@ -8996,8 +9028,8 @@
       <c r="L159" s="4">
         <v>152</v>
       </c>
-      <c r="M159" s="12" t="s">
-        <v>648</v>
+      <c r="M159" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9005,22 +9037,22 @@
         <v>153</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="H160" s="12" t="s">
         <v>22</v>
@@ -9029,7 +9061,7 @@
         <v>23</v>
       </c>
       <c r="J160" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K160" s="12">
         <v>1</v>
@@ -9037,8 +9069,8 @@
       <c r="L160" s="4">
         <v>153</v>
       </c>
-      <c r="M160" s="12" t="s">
-        <v>648</v>
+      <c r="M160" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9046,22 +9078,22 @@
         <v>154</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="H161" s="12" t="s">
         <v>22</v>
@@ -9070,7 +9102,7 @@
         <v>23</v>
       </c>
       <c r="J161" s="13" t="s">
-        <v>651</v>
+        <v>24</v>
       </c>
       <c r="K161" s="12">
         <v>1</v>
@@ -9078,66 +9110,66 @@
       <c r="L161" s="4">
         <v>154</v>
       </c>
-      <c r="M161" s="12" t="s">
-        <v>648</v>
+      <c r="M161" s="22" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J106">
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J131:J144">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J146:J153">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J155:J161">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108:J109">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J111:J129">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J131:J144">
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J146:J153">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -9145,7 +9177,7 @@
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J155:J161">
+  <conditionalFormatting sqref="J111:J129">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -9154,7 +9186,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J146:J153 J3:J106 J131:J144 J108:J109 J111:J129 J155:J161" xr:uid="{94536AF8-B0B3-4690-A59B-64F66E932AAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J155:J161 J108:J109 J146:J153 J111:J129 J131:J144 J3:J106" xr:uid="{94536AF8-B0B3-4690-A59B-64F66E932AAC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9165,88 +9197,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDFB2D7-B570-487A-97F8-4F907F488087}">
-  <dimension ref="A1:CL4"/>
+  <dimension ref="A1:CO4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BH2" sqref="BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.109375" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="18" customWidth="1"/>
-    <col min="10" max="13" width="10.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" style="18" customWidth="1"/>
-    <col min="15" max="16" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="20.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.109375" style="18" customWidth="1"/>
-    <col min="29" max="29" width="11.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18" style="18" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21" style="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="19.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23" style="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="28.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="34.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="21" style="18" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="26.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="31" style="18" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="13.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="18.21875" style="18" customWidth="1"/>
-    <col min="59" max="59" width="16.33203125" style="18" customWidth="1"/>
-    <col min="60" max="63" width="17.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="22" style="18" bestFit="1" customWidth="1"/>
-    <col min="65" max="67" width="25.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="22.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="18" customWidth="1"/>
+    <col min="11" max="14" width="10.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="18" customWidth="1"/>
+    <col min="16" max="17" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="20.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="19.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.109375" style="18" customWidth="1"/>
+    <col min="30" max="30" width="11.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21" style="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23" style="18" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21" style="18" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="32.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="25.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="32.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="31" style="18" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="13.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="18.21875" style="18" customWidth="1"/>
+    <col min="62" max="62" width="16.33203125" style="18" customWidth="1"/>
+    <col min="63" max="66" width="17.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22" style="18" bestFit="1" customWidth="1"/>
+    <col min="68" max="70" width="25.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14" style="18" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="10.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="74" max="77" width="20.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="19.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="23.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="11.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="85" max="86" width="17.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="17.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="16.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="8.88671875" style="18"/>
+    <col min="74" max="75" width="22.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="77" max="80" width="20.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="19.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="23.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="17.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="17.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="94" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>330</v>
       </c>
@@ -9275,13 +9310,13 @@
         <v>338</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>349</v>
@@ -9290,223 +9325,223 @@
         <v>350</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>353</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>356</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>361</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="W1" s="14" t="s">
         <v>365</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Z1" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB1" s="14" t="s">
         <v>375</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AD1" s="14" t="s">
         <v>378</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF1" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG1" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI1" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="AH1" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="AK1" s="14" t="s">
         <v>388</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="AK1" s="14" t="s">
-        <v>392</v>
       </c>
       <c r="AL1" s="14" t="s">
         <v>393</v>
       </c>
       <c r="AM1" s="14" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AN1" s="14" t="s">
         <v>390</v>
       </c>
       <c r="AO1" s="14" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AP1" s="14" t="s">
         <v>399</v>
       </c>
       <c r="AQ1" s="14" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AR1" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AS1" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AT1" s="14" t="s">
         <v>401</v>
       </c>
       <c r="AU1" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AV1" s="14" t="s">
         <v>404</v>
       </c>
       <c r="AW1" s="14" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="AX1" s="14" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="AY1" s="14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AZ1" s="14" t="s">
         <v>409</v>
       </c>
       <c r="BA1" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BB1" s="14" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="BC1" s="14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="BD1" s="14" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="BE1" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="BF1" s="14" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="BG1" s="14" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="BH1" s="14" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="BI1" s="14" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="BJ1" s="14" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="BK1" s="14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="BL1" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="BM1" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="BN1" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="BO1" s="14" t="s">
         <v>431</v>
-      </c>
-      <c r="BN1" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="BO1" s="14" t="s">
-        <v>432</v>
       </c>
       <c r="BP1" s="14" t="s">
         <v>436</v>
       </c>
       <c r="BQ1" s="14" t="s">
-        <v>3</v>
+        <v>437</v>
       </c>
       <c r="BR1" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="BS1" s="14" t="s">
         <v>441</v>
       </c>
       <c r="BT1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU1" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="BU1" s="14" t="s">
-        <v>445</v>
-      </c>
       <c r="BV1" s="14" t="s">
-        <v>615</v>
+        <v>446</v>
       </c>
       <c r="BW1" s="14" t="s">
-        <v>616</v>
+        <v>449</v>
       </c>
       <c r="BX1" s="14" t="s">
-        <v>620</v>
+        <v>450</v>
       </c>
       <c r="BY1" s="14" t="s">
         <v>619</v>
       </c>
       <c r="BZ1" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="CA1" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="CB1" s="14" t="s">
         <v>623</v>
-      </c>
-      <c r="CA1" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="CB1" s="14" t="s">
-        <v>625</v>
       </c>
       <c r="CC1" s="14" t="s">
         <v>627</v>
       </c>
       <c r="CD1" s="14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="CE1" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="CF1" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="CG1" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="CG1" s="14" t="s">
+      <c r="CH1" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="CI1" s="14" t="s">
         <v>636</v>
-      </c>
-      <c r="CH1" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="CI1" s="14" t="s">
-        <v>639</v>
       </c>
       <c r="CJ1" s="14" t="s">
         <v>640</v>
@@ -9515,232 +9550,247 @@
         <v>641</v>
       </c>
       <c r="CL1" s="14" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="2" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+      <c r="CM1" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="CN1" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="CO1" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>340</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="G2" s="22" t="s">
         <v>341</v>
       </c>
+      <c r="F2" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>342</v>
+      </c>
       <c r="H2" s="16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>656</v>
+        <v>345</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>348</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>351</v>
+        <v>664</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="T2" s="17" t="s">
         <v>363</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="V2" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="W2" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>369</v>
-      </c>
       <c r="Y2" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="AD2" s="17" t="s">
-        <v>379</v>
+        <v>377</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>663</v>
       </c>
       <c r="AE2" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF2" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG2" s="17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AH2" s="17" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="AI2" s="17" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="AJ2" s="17" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="AK2" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="AL2" s="17">
+        <v>341</v>
+      </c>
+      <c r="AL2" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="AM2" s="17">
         <v>100</v>
       </c>
-      <c r="AM2" s="17" t="s">
-        <v>391</v>
-      </c>
       <c r="AN2" s="17" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="AO2" s="17" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="AP2" s="17" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="AQ2" s="17" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="AR2" s="17" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="AS2" s="17" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="AT2" s="17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AU2" s="17" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="AV2" s="17" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="AX2" s="17" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="AY2" s="17" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AZ2" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BA2" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BB2" s="17" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="BC2" s="17" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="BD2" s="17" t="s">
         <v>417</v>
       </c>
       <c r="BE2" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="BF2" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="BF2" s="17" t="s">
-        <v>447</v>
-      </c>
       <c r="BG2" s="17" t="s">
-        <v>658</v>
+        <v>421</v>
       </c>
       <c r="BH2" s="17" t="s">
         <v>426</v>
       </c>
       <c r="BI2" s="17" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="BJ2" s="17" t="s">
-        <v>452</v>
+        <v>656</v>
       </c>
       <c r="BK2" s="17" t="s">
-        <v>659</v>
+        <v>430</v>
       </c>
       <c r="BL2" s="17" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="BM2" s="17" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="BN2" s="17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BO2" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BP2" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BQ2" s="17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BR2" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BS2" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BT2" s="17" t="s">
         <v>443</v>
       </c>
       <c r="BU2" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="BV2" s="11"/>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="11"/>
+        <v>445</v>
+      </c>
+      <c r="BV2" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW2" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="BX2" s="17" t="s">
+        <v>447</v>
+      </c>
       <c r="BY2" s="11"/>
       <c r="BZ2" s="11"/>
       <c r="CA2" s="11"/>
@@ -9751,41 +9801,44 @@
       <c r="CF2" s="11"/>
       <c r="CG2" s="11"/>
       <c r="CH2" s="11"/>
-      <c r="CI2" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="CJ2" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="CK2" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="CL2" s="23"/>
-    </row>
-    <row r="3" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="CI2" s="11"/>
+      <c r="CJ2" s="11"/>
+      <c r="CK2" s="11"/>
+      <c r="CL2" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="CM2" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="CN2" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="CO2" s="26"/>
+    </row>
+    <row r="3" spans="1:93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>660</v>
+        <v>616</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>658</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="16"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
@@ -9859,26 +9912,29 @@
       <c r="CF3" s="17"/>
       <c r="CG3" s="17"/>
       <c r="CH3" s="17"/>
-      <c r="CI3" s="11"/>
-      <c r="CJ3" s="11"/>
-      <c r="CK3" s="11"/>
+      <c r="CI3" s="17"/>
+      <c r="CJ3" s="17"/>
+      <c r="CK3" s="17"/>
       <c r="CL3" s="11"/>
-    </row>
-    <row r="4" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="CM3" s="11"/>
+      <c r="CN3" s="11"/>
+      <c r="CO3" s="11"/>
+    </row>
+    <row r="4" spans="1:93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>614</v>
+        <v>660</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -9948,61 +10004,66 @@
       <c r="BS4" s="11"/>
       <c r="BT4" s="11"/>
       <c r="BU4" s="11"/>
-      <c r="BV4" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="BW4" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="BX4" s="17" t="s">
-        <v>621</v>
-      </c>
+      <c r="BV4" s="11"/>
+      <c r="BW4" s="11"/>
+      <c r="BX4" s="11"/>
       <c r="BY4" s="17" t="s">
         <v>621</v>
       </c>
       <c r="BZ4" s="17" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="CA4" s="17" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="CB4" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="CC4" s="17" t="s">
-        <v>440</v>
+        <v>628</v>
       </c>
       <c r="CD4" s="17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="CE4" s="17" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="CF4" s="17" t="s">
-        <v>634</v>
+        <v>445</v>
       </c>
       <c r="CG4" s="17" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="CH4" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="CI4" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="CJ4" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="CK4" s="16" t="s">
+      <c r="CI4" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="CJ4" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="CK4" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="CL4" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="CM4" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="CN4" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="CO4" s="24" t="s">
         <v>649</v>
-      </c>
-      <c r="CL4" s="16" t="s">
-        <v>650</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://test-partners-sakani.housingapps.sa/" xr:uid="{56446B01-6A9E-4E93-AA79-327FE05E4437}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3AB5AB6A-6B6C-4277-8807-965616369471}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{CA0A2D40-6D0C-4B0E-998F-BDFC0B7476D4}"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://stg-sakani.housingapps.sa/" xr:uid="{1EAB75BE-CE5E-491F-96CC-AC5DE46C5037}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Run_Manager_Full_Booking_Journey.xlsx
+++ b/src/test/resources/Run_Manager_Full_Booking_Journey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\SAKANI_TST_R1\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\New_Sakani_TST_Git\Sakani_TST_New\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058E9D3B-FD49-4614-84EA-1975E94AAE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5931C2B-866D-4CDB-866F-12478B63FB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2148" windowWidth="18756" windowHeight="10092" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -9145,43 +9145,43 @@
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J131:J144">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+  <conditionalFormatting sqref="J108:J109">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J111:J129">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J131:J144">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146:J153">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155:J161">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J108:J109">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J111:J129">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9199,8 +9199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDFB2D7-B570-487A-97F8-4F907F488087}">
   <dimension ref="A1:CO4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BH2" sqref="BH2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/Run_Manager_Full_Booking_Journey.xlsx
+++ b/src/test/resources/Run_Manager_Full_Booking_Journey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\New_Sakani_TST_Git\Sakani_TST_New\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\SAKANI_TST_R1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5931C2B-866D-4CDB-866F-12478B63FB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC5DBE5-71AD-4D49-A14B-BB1AEFE64A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2148" windowWidth="18756" windowHeight="10092" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="661">
   <si>
     <t>P_Key</t>
   </si>
@@ -1049,9 +1049,6 @@
     <t>Secondary_Title</t>
   </si>
   <si>
-    <t>Project_Name_lessThan5_Digits</t>
-  </si>
-  <si>
     <t>Project_Type_EN</t>
   </si>
   <si>
@@ -1067,9 +1064,6 @@
     <t>Testing project</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Offplan MOH land</t>
   </si>
   <si>
@@ -1085,6 +1079,9 @@
     <t>Makkah</t>
   </si>
   <si>
+    <t>مكة المكرمة</t>
+  </si>
+  <si>
     <t>City_EN</t>
   </si>
   <si>
@@ -1112,9 +1109,6 @@
     <t>MegaProject_Type_AR</t>
   </si>
   <si>
-    <t>Land Project</t>
-  </si>
-  <si>
     <t>WAFi_Expiry_Date</t>
   </si>
   <si>
@@ -1271,15 +1265,6 @@
     <t>Extend_Price_Quotation_Fee</t>
   </si>
   <si>
-    <t>Extend_Price_Quotation_Day_Invalid</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Extend_Price_Quotation_Fee_Invalid</t>
-  </si>
-  <si>
     <t>Building_Permit_Period</t>
   </si>
   <si>
@@ -1343,9 +1328,6 @@
     <t>Word_Attachment</t>
   </si>
   <si>
-    <t>/src/main/resources/Sample word file .docx</t>
-  </si>
-  <si>
     <t>Booking_Template_Type_EN</t>
   </si>
   <si>
@@ -1416,6 +1398,9 @@
   </si>
   <si>
     <t>Developer approves the Sale contract from Partners portal</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>Full_Booking_Journey~user</t>
@@ -2054,61 +2039,59 @@
     <t>4464040000000007</t>
   </si>
   <si>
-    <t>07/24</t>
-  </si>
-  <si>
-    <t>222</t>
+    <t>Test name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execution Is pending because it can't be executed on guest netwrok </t>
+  </si>
+  <si>
+    <t>Verify functionality of Confirm Rejection button on Reject sales contract page</t>
+  </si>
+  <si>
+    <t>Verify funtionality of Reject button</t>
+  </si>
+  <si>
+    <t>Executed</t>
+  </si>
+  <si>
+    <t>10/25</t>
+  </si>
+  <si>
+    <t>996</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Test name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execution Is pending because it can't be executed on guest netwrok </t>
-  </si>
-  <si>
-    <t>Verify functionality of Confirm Rejection button on Reject sales contract page</t>
-  </si>
-  <si>
-    <t>Verify funtionality of Reject button</t>
-  </si>
-  <si>
-    <t>Executed</t>
+    <t>https://test-admin-sakani.housingapps.sa/</t>
+  </si>
+  <si>
+    <t>https://test-sakani.housingapps.sa/</t>
+  </si>
+  <si>
+    <t>super_admin@test1-admin-sakani.housingapps.sa</t>
+  </si>
+  <si>
+    <t>JEDDAH</t>
+  </si>
+  <si>
+    <t>جدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank خلود النابلسي 1718704266
+ </t>
   </si>
   <si>
     <t>/src/main/resources/units/Offplan_MOH.xlsx</t>
   </si>
   <si>
-    <t>https://test-sakani.housingapps.sa</t>
-  </si>
-  <si>
-    <t>https://test-partners-sakani.housingapps.sa</t>
-  </si>
-  <si>
-    <t>https://test-admin-sakani.housingapps.sa</t>
-  </si>
-  <si>
-    <t>Aa123456@</t>
-  </si>
-  <si>
-    <t>1076196383</t>
-  </si>
-  <si>
-    <t>super_admin@test1-admin-sakani.housingapps.sa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank خلود النابلسي 1718704266
- 'Bank خلود النابلسي 1718704266Bank خلود النابلسي 1718704266
- Bank خلود النابلسي 1718704266
- </t>
-  </si>
-  <si>
-    <t>الخرج</t>
-  </si>
-  <si>
-    <t>الرياض</t>
+    <t>https://test-partners-sakani.housingapps.sa/auth</t>
+  </si>
+  <si>
+    <t>Smoke Test for one Mega project</t>
+  </si>
+  <si>
+    <t>/src/main/resources/Sakani.docx</t>
   </si>
 </sst>
 </file>
@@ -2174,7 +2157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2217,8 +2200,14 @@
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2245,19 +2234,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2272,7 +2248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2331,31 +2307,22 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2801,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M138" sqref="M138"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2860,7 +2827,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2893,7 +2860,7 @@
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="21"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
@@ -2932,7 +2899,7 @@
       <c r="L3" s="4">
         <v>1</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
@@ -2971,7 +2938,7 @@
       <c r="L4" s="4">
         <v>2</v>
       </c>
-      <c r="M4" s="22"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
@@ -3004,13 +2971,13 @@
       <c r="J5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="12">
-        <v>1</v>
+      <c r="K5" s="12" t="s">
+        <v>454</v>
       </c>
       <c r="L5" s="4">
         <v>3</v>
       </c>
-      <c r="M5" s="22"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
@@ -3049,7 +3016,7 @@
       <c r="L6" s="4">
         <v>4</v>
       </c>
-      <c r="M6" s="22"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -3088,7 +3055,7 @@
       <c r="L7" s="4">
         <v>5</v>
       </c>
-      <c r="M7" s="22"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
@@ -3127,7 +3094,7 @@
       <c r="L8" s="4">
         <v>6</v>
       </c>
-      <c r="M8" s="22"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -3158,7 +3125,7 @@
         <v>23</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="K9" s="12">
         <v>1</v>
@@ -3166,7 +3133,7 @@
       <c r="L9" s="4">
         <v>7</v>
       </c>
-      <c r="M9" s="22"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
@@ -3205,7 +3172,7 @@
       <c r="L10" s="4">
         <v>8</v>
       </c>
-      <c r="M10" s="22"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
@@ -3244,7 +3211,7 @@
       <c r="L11" s="4">
         <v>9</v>
       </c>
-      <c r="M11" s="22"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -3283,7 +3250,7 @@
       <c r="L12" s="4">
         <v>10</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -3322,7 +3289,7 @@
       <c r="L13" s="4">
         <v>11</v>
       </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -3361,7 +3328,7 @@
       <c r="L14" s="4">
         <v>12</v>
       </c>
-      <c r="M14" s="22"/>
+      <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
@@ -3400,7 +3367,7 @@
       <c r="L15" s="4">
         <v>13</v>
       </c>
-      <c r="M15" s="22"/>
+      <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
@@ -3439,7 +3406,7 @@
       <c r="L16" s="4">
         <v>14</v>
       </c>
-      <c r="M16" s="22"/>
+      <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
@@ -3478,7 +3445,7 @@
       <c r="L17" s="4">
         <v>15</v>
       </c>
-      <c r="M17" s="22"/>
+      <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
@@ -3517,7 +3484,7 @@
       <c r="L18" s="4">
         <v>16</v>
       </c>
-      <c r="M18" s="22"/>
+      <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -3556,7 +3523,7 @@
       <c r="L19" s="4">
         <v>17</v>
       </c>
-      <c r="M19" s="22"/>
+      <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
@@ -3595,7 +3562,7 @@
       <c r="L20" s="4">
         <v>18</v>
       </c>
-      <c r="M20" s="22"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
@@ -3634,7 +3601,7 @@
       <c r="L21" s="4">
         <v>19</v>
       </c>
-      <c r="M21" s="22"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -3673,7 +3640,7 @@
       <c r="L22" s="4">
         <v>20</v>
       </c>
-      <c r="M22" s="22"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
@@ -3712,7 +3679,7 @@
       <c r="L23" s="4">
         <v>21</v>
       </c>
-      <c r="M23" s="22"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
@@ -3751,7 +3718,7 @@
       <c r="L24" s="4">
         <v>22</v>
       </c>
-      <c r="M24" s="22"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
@@ -3790,7 +3757,7 @@
       <c r="L25" s="4">
         <v>23</v>
       </c>
-      <c r="M25" s="22"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
@@ -3829,7 +3796,7 @@
       <c r="L26" s="4">
         <v>24</v>
       </c>
-      <c r="M26" s="22"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
@@ -3868,7 +3835,7 @@
       <c r="L27" s="4">
         <v>25</v>
       </c>
-      <c r="M27" s="22"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
@@ -3907,7 +3874,7 @@
       <c r="L28" s="4">
         <v>26</v>
       </c>
-      <c r="M28" s="22"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
@@ -3946,7 +3913,7 @@
       <c r="L29" s="4">
         <v>27</v>
       </c>
-      <c r="M29" s="22"/>
+      <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
@@ -3985,7 +3952,7 @@
       <c r="L30" s="4">
         <v>28</v>
       </c>
-      <c r="M30" s="22"/>
+      <c r="M30" s="12"/>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
@@ -4024,7 +3991,7 @@
       <c r="L31" s="4">
         <v>29</v>
       </c>
-      <c r="M31" s="22"/>
+      <c r="M31" s="12"/>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
@@ -4063,7 +4030,7 @@
       <c r="L32" s="4">
         <v>30</v>
       </c>
-      <c r="M32" s="22"/>
+      <c r="M32" s="12"/>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
@@ -4102,7 +4069,7 @@
       <c r="L33" s="4">
         <v>31</v>
       </c>
-      <c r="M33" s="22"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
@@ -4141,7 +4108,7 @@
       <c r="L34" s="4">
         <v>32</v>
       </c>
-      <c r="M34" s="22"/>
+      <c r="M34" s="12"/>
     </row>
     <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
@@ -4180,7 +4147,7 @@
       <c r="L35" s="4">
         <v>33</v>
       </c>
-      <c r="M35" s="22"/>
+      <c r="M35" s="12"/>
     </row>
     <row r="36" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
@@ -4219,7 +4186,7 @@
       <c r="L36" s="4">
         <v>34</v>
       </c>
-      <c r="M36" s="22"/>
+      <c r="M36" s="12"/>
     </row>
     <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -4258,7 +4225,7 @@
       <c r="L37" s="4">
         <v>35</v>
       </c>
-      <c r="M37" s="22"/>
+      <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -4297,7 +4264,7 @@
       <c r="L38" s="4">
         <v>36</v>
       </c>
-      <c r="M38" s="22"/>
+      <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
@@ -4336,7 +4303,7 @@
       <c r="L39" s="4">
         <v>37</v>
       </c>
-      <c r="M39" s="22"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -4375,7 +4342,7 @@
       <c r="L40" s="4">
         <v>38</v>
       </c>
-      <c r="M40" s="22"/>
+      <c r="M40" s="12"/>
     </row>
     <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
@@ -4414,7 +4381,7 @@
       <c r="L41" s="4">
         <v>39</v>
       </c>
-      <c r="M41" s="22"/>
+      <c r="M41" s="12"/>
     </row>
     <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
@@ -4453,7 +4420,7 @@
       <c r="L42" s="4">
         <v>40</v>
       </c>
-      <c r="M42" s="22"/>
+      <c r="M42" s="12"/>
     </row>
     <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
@@ -4492,7 +4459,7 @@
       <c r="L43" s="4">
         <v>41</v>
       </c>
-      <c r="M43" s="22"/>
+      <c r="M43" s="12"/>
     </row>
     <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
@@ -4523,7 +4490,7 @@
         <v>23</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K44" s="12">
         <v>1</v>
@@ -4531,7 +4498,7 @@
       <c r="L44" s="4">
         <v>42</v>
       </c>
-      <c r="M44" s="22"/>
+      <c r="M44" s="12"/>
     </row>
     <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
@@ -4562,7 +4529,7 @@
         <v>23</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K45" s="12">
         <v>1</v>
@@ -4570,7 +4537,7 @@
       <c r="L45" s="4">
         <v>43</v>
       </c>
-      <c r="M45" s="22"/>
+      <c r="M45" s="12"/>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
@@ -4601,7 +4568,7 @@
         <v>23</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K46" s="12">
         <v>1</v>
@@ -4609,7 +4576,7 @@
       <c r="L46" s="4">
         <v>44</v>
       </c>
-      <c r="M46" s="22"/>
+      <c r="M46" s="12"/>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
@@ -4640,7 +4607,7 @@
         <v>23</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K47" s="12">
         <v>1</v>
@@ -4648,7 +4615,7 @@
       <c r="L47" s="4">
         <v>45</v>
       </c>
-      <c r="M47" s="22"/>
+      <c r="M47" s="12"/>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
@@ -4679,7 +4646,7 @@
         <v>23</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K48" s="12">
         <v>1</v>
@@ -4687,7 +4654,7 @@
       <c r="L48" s="4">
         <v>46</v>
       </c>
-      <c r="M48" s="22"/>
+      <c r="M48" s="12"/>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
@@ -4718,7 +4685,7 @@
         <v>23</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K49" s="12">
         <v>1</v>
@@ -4726,7 +4693,7 @@
       <c r="L49" s="4">
         <v>47</v>
       </c>
-      <c r="M49" s="22"/>
+      <c r="M49" s="12"/>
     </row>
     <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
@@ -4757,7 +4724,7 @@
         <v>23</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K50" s="12">
         <v>1</v>
@@ -4765,7 +4732,7 @@
       <c r="L50" s="4">
         <v>48</v>
       </c>
-      <c r="M50" s="22"/>
+      <c r="M50" s="12"/>
     </row>
     <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
@@ -4796,7 +4763,7 @@
         <v>23</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K51" s="12">
         <v>1</v>
@@ -4804,7 +4771,7 @@
       <c r="L51" s="4">
         <v>49</v>
       </c>
-      <c r="M51" s="22"/>
+      <c r="M51" s="12"/>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
@@ -4835,7 +4802,7 @@
         <v>23</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K52" s="12">
         <v>1</v>
@@ -4843,7 +4810,7 @@
       <c r="L52" s="4">
         <v>50</v>
       </c>
-      <c r="M52" s="22"/>
+      <c r="M52" s="12"/>
     </row>
     <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
@@ -4874,7 +4841,7 @@
         <v>23</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K53" s="12">
         <v>1</v>
@@ -4882,7 +4849,7 @@
       <c r="L53" s="4">
         <v>51</v>
       </c>
-      <c r="M53" s="22"/>
+      <c r="M53" s="12"/>
     </row>
     <row r="54" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
@@ -4913,7 +4880,7 @@
         <v>23</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K54" s="12">
         <v>1</v>
@@ -4921,7 +4888,7 @@
       <c r="L54" s="4">
         <v>52</v>
       </c>
-      <c r="M54" s="22"/>
+      <c r="M54" s="12"/>
     </row>
     <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
@@ -4952,7 +4919,7 @@
         <v>23</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K55" s="12">
         <v>1</v>
@@ -4960,7 +4927,7 @@
       <c r="L55" s="4">
         <v>53</v>
       </c>
-      <c r="M55" s="22"/>
+      <c r="M55" s="12"/>
     </row>
     <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
@@ -4991,7 +4958,7 @@
         <v>23</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K56" s="12">
         <v>1</v>
@@ -4999,7 +4966,7 @@
       <c r="L56" s="4">
         <v>54</v>
       </c>
-      <c r="M56" s="22"/>
+      <c r="M56" s="12"/>
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
@@ -5030,7 +4997,7 @@
         <v>23</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K57" s="12">
         <v>1</v>
@@ -5038,7 +5005,7 @@
       <c r="L57" s="4">
         <v>55</v>
       </c>
-      <c r="M57" s="22"/>
+      <c r="M57" s="12"/>
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
@@ -5069,7 +5036,7 @@
         <v>23</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K58" s="12">
         <v>1</v>
@@ -5077,7 +5044,7 @@
       <c r="L58" s="4">
         <v>56</v>
       </c>
-      <c r="M58" s="22"/>
+      <c r="M58" s="12"/>
     </row>
     <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
@@ -5108,7 +5075,7 @@
         <v>23</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K59" s="12">
         <v>1</v>
@@ -5116,7 +5083,7 @@
       <c r="L59" s="4">
         <v>57</v>
       </c>
-      <c r="M59" s="22"/>
+      <c r="M59" s="12"/>
     </row>
     <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
@@ -5147,7 +5114,7 @@
         <v>23</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K60" s="12">
         <v>1</v>
@@ -5155,7 +5122,7 @@
       <c r="L60" s="4">
         <v>58</v>
       </c>
-      <c r="M60" s="22"/>
+      <c r="M60" s="12"/>
     </row>
     <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
@@ -5186,7 +5153,7 @@
         <v>23</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K61" s="12">
         <v>1</v>
@@ -5194,7 +5161,7 @@
       <c r="L61" s="4">
         <v>59</v>
       </c>
-      <c r="M61" s="22"/>
+      <c r="M61" s="12"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
@@ -5225,7 +5192,7 @@
         <v>23</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K62" s="12">
         <v>1</v>
@@ -5233,7 +5200,7 @@
       <c r="L62" s="4">
         <v>60</v>
       </c>
-      <c r="M62" s="22"/>
+      <c r="M62" s="12"/>
     </row>
     <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
@@ -5245,7 +5212,7 @@
       <c r="C63" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="26" t="s">
         <v>205</v>
       </c>
       <c r="E63" s="11" t="s">
@@ -5264,7 +5231,7 @@
         <v>23</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K63" s="12">
         <v>1</v>
@@ -5272,7 +5239,7 @@
       <c r="L63" s="4">
         <v>61</v>
       </c>
-      <c r="M63" s="22"/>
+      <c r="M63" s="12"/>
     </row>
     <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
@@ -5284,7 +5251,7 @@
       <c r="C64" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="26" t="s">
         <v>202</v>
       </c>
       <c r="E64" s="11" t="s">
@@ -5303,7 +5270,7 @@
         <v>23</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K64" s="12">
         <v>1</v>
@@ -5311,7 +5278,7 @@
       <c r="L64" s="4">
         <v>62</v>
       </c>
-      <c r="M64" s="22"/>
+      <c r="M64" s="12"/>
     </row>
     <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
@@ -5321,10 +5288,10 @@
         <v>17</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>453</v>
+        <v>447</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>447</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>209</v>
@@ -5342,7 +5309,7 @@
         <v>23</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K65" s="12">
         <v>1</v>
@@ -5350,7 +5317,7 @@
       <c r="L65" s="4">
         <v>63</v>
       </c>
-      <c r="M65" s="22"/>
+      <c r="M65" s="12"/>
     </row>
     <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
@@ -5362,7 +5329,7 @@
       <c r="C66" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="26" t="s">
         <v>208</v>
       </c>
       <c r="E66" s="11" t="s">
@@ -5381,7 +5348,7 @@
         <v>23</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K66" s="12">
         <v>1</v>
@@ -5389,7 +5356,7 @@
       <c r="L66" s="4">
         <v>64</v>
       </c>
-      <c r="M66" s="22"/>
+      <c r="M66" s="12"/>
     </row>
     <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
@@ -5401,7 +5368,7 @@
       <c r="C67" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E67" s="11" t="s">
@@ -5420,7 +5387,7 @@
         <v>23</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K67" s="12">
         <v>1</v>
@@ -5428,7 +5395,7 @@
       <c r="L67" s="4">
         <v>65</v>
       </c>
-      <c r="M67" s="22"/>
+      <c r="M67" s="12"/>
     </row>
     <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
@@ -5459,7 +5426,7 @@
         <v>23</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K68" s="12">
         <v>1</v>
@@ -5467,7 +5434,7 @@
       <c r="L68" s="4">
         <v>66</v>
       </c>
-      <c r="M68" s="22"/>
+      <c r="M68" s="12"/>
     </row>
     <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
@@ -5498,7 +5465,7 @@
         <v>23</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K69" s="12">
         <v>1</v>
@@ -5506,7 +5473,7 @@
       <c r="L69" s="4">
         <v>67</v>
       </c>
-      <c r="M69" s="22"/>
+      <c r="M69" s="12"/>
     </row>
     <row r="70" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
@@ -5518,7 +5485,7 @@
       <c r="C70" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="26" t="s">
         <v>225</v>
       </c>
       <c r="E70" s="11" t="s">
@@ -5537,7 +5504,7 @@
         <v>23</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K70" s="12">
         <v>1</v>
@@ -5545,7 +5512,7 @@
       <c r="L70" s="4">
         <v>68</v>
       </c>
-      <c r="M70" s="22"/>
+      <c r="M70" s="12"/>
     </row>
     <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
@@ -5557,7 +5524,7 @@
       <c r="C71" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="26" t="s">
         <v>222</v>
       </c>
       <c r="E71" s="11" t="s">
@@ -5576,7 +5543,7 @@
         <v>23</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K71" s="12">
         <v>1</v>
@@ -5584,7 +5551,7 @@
       <c r="L71" s="4">
         <v>69</v>
       </c>
-      <c r="M71" s="22"/>
+      <c r="M71" s="12"/>
     </row>
     <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
@@ -5596,7 +5563,7 @@
       <c r="C72" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="26" t="s">
         <v>230</v>
       </c>
       <c r="E72" s="11" t="s">
@@ -5615,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K72" s="12">
         <v>1</v>
@@ -5623,7 +5590,7 @@
       <c r="L72" s="4">
         <v>70</v>
       </c>
-      <c r="M72" s="22"/>
+      <c r="M72" s="12"/>
     </row>
     <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
@@ -5633,10 +5600,10 @@
         <v>17</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>454</v>
+        <v>448</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>448</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>231</v>
@@ -5654,7 +5621,7 @@
         <v>23</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K73" s="12">
         <v>1</v>
@@ -5662,7 +5629,7 @@
       <c r="L73" s="4">
         <v>71</v>
       </c>
-      <c r="M73" s="22"/>
+      <c r="M73" s="12"/>
     </row>
     <row r="74" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
@@ -5674,7 +5641,7 @@
       <c r="C74" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="26" t="s">
         <v>235</v>
       </c>
       <c r="E74" s="11" t="s">
@@ -5693,7 +5660,7 @@
         <v>23</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K74" s="12">
         <v>1</v>
@@ -5701,7 +5668,7 @@
       <c r="L74" s="4">
         <v>72</v>
       </c>
-      <c r="M74" s="22"/>
+      <c r="M74" s="12"/>
     </row>
     <row r="75" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
@@ -5711,10 +5678,10 @@
         <v>17</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>455</v>
+        <v>449</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>449</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>236</v>
@@ -5732,7 +5699,7 @@
         <v>23</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K75" s="12">
         <v>1</v>
@@ -5740,7 +5707,7 @@
       <c r="L75" s="4">
         <v>73</v>
       </c>
-      <c r="M75" s="22"/>
+      <c r="M75" s="12"/>
     </row>
     <row r="76" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
@@ -5752,7 +5719,7 @@
       <c r="C76" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="26" t="s">
         <v>238</v>
       </c>
       <c r="E76" s="11" t="s">
@@ -5771,7 +5738,7 @@
         <v>23</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K76" s="12">
         <v>1</v>
@@ -5779,7 +5746,7 @@
       <c r="L76" s="4">
         <v>74</v>
       </c>
-      <c r="M76" s="22"/>
+      <c r="M76" s="12"/>
     </row>
     <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
@@ -5791,7 +5758,7 @@
       <c r="C77" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="26" t="s">
         <v>241</v>
       </c>
       <c r="E77" s="11" t="s">
@@ -5810,7 +5777,7 @@
         <v>23</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K77" s="12">
         <v>1</v>
@@ -5818,7 +5785,7 @@
       <c r="L77" s="4">
         <v>75</v>
       </c>
-      <c r="M77" s="22"/>
+      <c r="M77" s="12"/>
     </row>
     <row r="78" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
@@ -5849,7 +5816,7 @@
         <v>23</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K78" s="12">
         <v>1</v>
@@ -5857,7 +5824,7 @@
       <c r="L78" s="4">
         <v>76</v>
       </c>
-      <c r="M78" s="22"/>
+      <c r="M78" s="12"/>
     </row>
     <row r="79" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
@@ -5869,7 +5836,7 @@
       <c r="C79" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="26" t="s">
         <v>247</v>
       </c>
       <c r="E79" s="11" t="s">
@@ -5888,7 +5855,7 @@
         <v>23</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K79" s="12">
         <v>1</v>
@@ -5896,7 +5863,7 @@
       <c r="L79" s="4">
         <v>77</v>
       </c>
-      <c r="M79" s="22"/>
+      <c r="M79" s="12"/>
     </row>
     <row r="80" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
@@ -5927,7 +5894,7 @@
         <v>23</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K80" s="12">
         <v>1</v>
@@ -5935,7 +5902,7 @@
       <c r="L80" s="4">
         <v>78</v>
       </c>
-      <c r="M80" s="22"/>
+      <c r="M80" s="12"/>
     </row>
     <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
@@ -5947,7 +5914,7 @@
       <c r="C81" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="26" t="s">
         <v>253</v>
       </c>
       <c r="E81" s="11" t="s">
@@ -5966,7 +5933,7 @@
         <v>23</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K81" s="12">
         <v>1</v>
@@ -5974,7 +5941,7 @@
       <c r="L81" s="4">
         <v>79</v>
       </c>
-      <c r="M81" s="22"/>
+      <c r="M81" s="12"/>
     </row>
     <row r="82" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
@@ -6005,7 +5972,7 @@
         <v>23</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K82" s="12">
         <v>1</v>
@@ -6013,7 +5980,7 @@
       <c r="L82" s="4">
         <v>80</v>
       </c>
-      <c r="M82" s="22"/>
+      <c r="M82" s="12"/>
     </row>
     <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
@@ -6025,7 +5992,7 @@
       <c r="C83" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="26" t="s">
         <v>259</v>
       </c>
       <c r="E83" s="11" t="s">
@@ -6044,7 +6011,7 @@
         <v>23</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K83" s="12">
         <v>1</v>
@@ -6052,7 +6019,7 @@
       <c r="L83" s="4">
         <v>81</v>
       </c>
-      <c r="M83" s="22"/>
+      <c r="M83" s="12"/>
     </row>
     <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
@@ -6083,7 +6050,7 @@
         <v>23</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K84" s="12">
         <v>1</v>
@@ -6091,7 +6058,7 @@
       <c r="L84" s="4">
         <v>82</v>
       </c>
-      <c r="M84" s="22"/>
+      <c r="M84" s="12"/>
     </row>
     <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
@@ -6103,7 +6070,7 @@
       <c r="C85" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="26" t="s">
         <v>265</v>
       </c>
       <c r="E85" s="11" t="s">
@@ -6122,7 +6089,7 @@
         <v>23</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K85" s="12">
         <v>1</v>
@@ -6130,7 +6097,7 @@
       <c r="L85" s="4">
         <v>83</v>
       </c>
-      <c r="M85" s="22"/>
+      <c r="M85" s="12"/>
     </row>
     <row r="86" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
@@ -6161,7 +6128,7 @@
         <v>23</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K86" s="12">
         <v>1</v>
@@ -6169,7 +6136,7 @@
       <c r="L86" s="4">
         <v>84</v>
       </c>
-      <c r="M86" s="22"/>
+      <c r="M86" s="12"/>
     </row>
     <row r="87" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
@@ -6200,7 +6167,7 @@
         <v>23</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K87" s="12">
         <v>1</v>
@@ -6208,7 +6175,7 @@
       <c r="L87" s="4">
         <v>85</v>
       </c>
-      <c r="M87" s="22"/>
+      <c r="M87" s="12"/>
     </row>
     <row r="88" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
@@ -6239,7 +6206,7 @@
         <v>23</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K88" s="12">
         <v>1</v>
@@ -6247,7 +6214,7 @@
       <c r="L88" s="4">
         <v>86</v>
       </c>
-      <c r="M88" s="22"/>
+      <c r="M88" s="12"/>
     </row>
     <row r="89" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
@@ -6259,7 +6226,7 @@
       <c r="C89" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="26" t="s">
         <v>277</v>
       </c>
       <c r="E89" s="11" t="s">
@@ -6278,7 +6245,7 @@
         <v>23</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K89" s="12">
         <v>1</v>
@@ -6286,7 +6253,7 @@
       <c r="L89" s="4">
         <v>87</v>
       </c>
-      <c r="M89" s="22"/>
+      <c r="M89" s="12"/>
     </row>
     <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
@@ -6298,7 +6265,7 @@
       <c r="C90" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="26" t="s">
         <v>280</v>
       </c>
       <c r="E90" s="11" t="s">
@@ -6317,7 +6284,7 @@
         <v>23</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K90" s="12">
         <v>1</v>
@@ -6325,7 +6292,7 @@
       <c r="L90" s="4">
         <v>88</v>
       </c>
-      <c r="M90" s="22"/>
+      <c r="M90" s="12"/>
     </row>
     <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
@@ -6337,7 +6304,7 @@
       <c r="C91" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="26" t="s">
         <v>283</v>
       </c>
       <c r="E91" s="11" t="s">
@@ -6356,7 +6323,7 @@
         <v>23</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K91" s="12">
         <v>1</v>
@@ -6364,7 +6331,7 @@
       <c r="L91" s="4">
         <v>89</v>
       </c>
-      <c r="M91" s="22"/>
+      <c r="M91" s="12"/>
     </row>
     <row r="92" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
@@ -6376,7 +6343,7 @@
       <c r="C92" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="26" t="s">
         <v>286</v>
       </c>
       <c r="E92" s="11" t="s">
@@ -6395,7 +6362,7 @@
         <v>23</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K92" s="12">
         <v>1</v>
@@ -6403,7 +6370,7 @@
       <c r="L92" s="4">
         <v>90</v>
       </c>
-      <c r="M92" s="22"/>
+      <c r="M92" s="12"/>
     </row>
     <row r="93" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
@@ -6434,7 +6401,7 @@
         <v>23</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K93" s="12">
         <v>1</v>
@@ -6442,7 +6409,7 @@
       <c r="L93" s="4">
         <v>91</v>
       </c>
-      <c r="M93" s="22"/>
+      <c r="M93" s="12"/>
     </row>
     <row r="94" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
@@ -6473,7 +6440,7 @@
         <v>23</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K94" s="12">
         <v>1</v>
@@ -6481,7 +6448,7 @@
       <c r="L94" s="4">
         <v>92</v>
       </c>
-      <c r="M94" s="22"/>
+      <c r="M94" s="12"/>
     </row>
     <row r="95" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
@@ -6512,7 +6479,7 @@
         <v>23</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K95" s="12">
         <v>1</v>
@@ -6520,7 +6487,7 @@
       <c r="L95" s="4">
         <v>93</v>
       </c>
-      <c r="M95" s="22"/>
+      <c r="M95" s="12"/>
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
@@ -6551,7 +6518,7 @@
         <v>23</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K96" s="12">
         <v>1</v>
@@ -6559,7 +6526,7 @@
       <c r="L96" s="4">
         <v>94</v>
       </c>
-      <c r="M96" s="22"/>
+      <c r="M96" s="12"/>
     </row>
     <row r="97" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
@@ -6590,7 +6557,7 @@
         <v>23</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K97" s="12">
         <v>1</v>
@@ -6598,7 +6565,7 @@
       <c r="L97" s="4">
         <v>95</v>
       </c>
-      <c r="M97" s="22"/>
+      <c r="M97" s="12"/>
     </row>
     <row r="98" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
@@ -6608,10 +6575,10 @@
         <v>17</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>304</v>
@@ -6629,7 +6596,7 @@
         <v>23</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K98" s="12">
         <v>1</v>
@@ -6637,7 +6604,7 @@
       <c r="L98" s="4">
         <v>96</v>
       </c>
-      <c r="M98" s="22"/>
+      <c r="M98" s="12"/>
     </row>
     <row r="99" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
@@ -6668,7 +6635,7 @@
         <v>23</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K99" s="12">
         <v>1</v>
@@ -6676,7 +6643,7 @@
       <c r="L99" s="4">
         <v>97</v>
       </c>
-      <c r="M99" s="22"/>
+      <c r="M99" s="12"/>
     </row>
     <row r="100" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
@@ -6707,7 +6674,7 @@
         <v>23</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K100" s="12">
         <v>1</v>
@@ -6715,7 +6682,7 @@
       <c r="L100" s="4">
         <v>98</v>
       </c>
-      <c r="M100" s="22"/>
+      <c r="M100" s="12"/>
     </row>
     <row r="101" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
@@ -6746,7 +6713,7 @@
         <v>23</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K101" s="12">
         <v>1</v>
@@ -6754,7 +6721,7 @@
       <c r="L101" s="4">
         <v>99</v>
       </c>
-      <c r="M101" s="22"/>
+      <c r="M101" s="12"/>
     </row>
     <row r="102" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
@@ -6785,7 +6752,7 @@
         <v>23</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K102" s="12">
         <v>1</v>
@@ -6793,7 +6760,7 @@
       <c r="L102" s="4">
         <v>100</v>
       </c>
-      <c r="M102" s="22"/>
+      <c r="M102" s="12"/>
     </row>
     <row r="103" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
@@ -6824,7 +6791,7 @@
         <v>23</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K103" s="12">
         <v>1</v>
@@ -6832,7 +6799,7 @@
       <c r="L103" s="4">
         <v>101</v>
       </c>
-      <c r="M103" s="22"/>
+      <c r="M103" s="12"/>
     </row>
     <row r="104" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
@@ -6863,7 +6830,7 @@
         <v>23</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K104" s="12">
         <v>1</v>
@@ -6871,7 +6838,7 @@
       <c r="L104" s="4">
         <v>102</v>
       </c>
-      <c r="M104" s="22"/>
+      <c r="M104" s="12"/>
     </row>
     <row r="105" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
@@ -6902,7 +6869,7 @@
         <v>23</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K105" s="12">
         <v>1</v>
@@ -6910,7 +6877,7 @@
       <c r="L105" s="4">
         <v>103</v>
       </c>
-      <c r="M105" s="22"/>
+      <c r="M105" s="12"/>
     </row>
     <row r="106" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
@@ -6941,7 +6908,7 @@
         <v>23</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K106" s="12">
         <v>1</v>
@@ -6949,17 +6916,17 @@
       <c r="L106" s="4">
         <v>104</v>
       </c>
-      <c r="M106" s="22"/>
+      <c r="M106" s="12"/>
     </row>
     <row r="107" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="8" t="s">
@@ -6980,29 +6947,29 @@
       </c>
       <c r="K107" s="9"/>
       <c r="L107" s="3"/>
-      <c r="M107" s="21"/>
+      <c r="M107" s="9"/>
     </row>
     <row r="108" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>105</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H108" s="12" t="s">
         <v>22</v>
@@ -7011,7 +6978,7 @@
         <v>23</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K108" s="12">
         <v>1</v>
@@ -7019,29 +6986,29 @@
       <c r="L108" s="4">
         <v>105</v>
       </c>
-      <c r="M108" s="22"/>
+      <c r="M108" s="12"/>
     </row>
     <row r="109" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>106</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>22</v>
@@ -7050,7 +7017,7 @@
         <v>23</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K109" s="12">
         <v>1</v>
@@ -7058,17 +7025,17 @@
       <c r="L109" s="4">
         <v>106</v>
       </c>
-      <c r="M109" s="22"/>
+      <c r="M109" s="12"/>
     </row>
     <row r="110" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="8" t="s">
@@ -7089,29 +7056,29 @@
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="3"/>
-      <c r="M110" s="21"/>
+      <c r="M110" s="9"/>
     </row>
     <row r="111" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>107</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>22</v>
@@ -7128,29 +7095,29 @@
       <c r="L111" s="4">
         <v>107</v>
       </c>
-      <c r="M111" s="22"/>
+      <c r="M111" s="12"/>
     </row>
     <row r="112" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>108</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>22</v>
@@ -7167,29 +7134,29 @@
       <c r="L112" s="4">
         <v>108</v>
       </c>
-      <c r="M112" s="22"/>
+      <c r="M112" s="12"/>
     </row>
     <row r="113" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>109</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>22</v>
@@ -7206,29 +7173,29 @@
       <c r="L113" s="4">
         <v>109</v>
       </c>
-      <c r="M113" s="22"/>
+      <c r="M113" s="12"/>
     </row>
     <row r="114" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>110</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H114" s="12" t="s">
         <v>22</v>
@@ -7245,29 +7212,29 @@
       <c r="L114" s="4">
         <v>110</v>
       </c>
-      <c r="M114" s="22"/>
+      <c r="M114" s="12"/>
     </row>
     <row r="115" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>111</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>22</v>
@@ -7284,29 +7251,29 @@
       <c r="L115" s="4">
         <v>111</v>
       </c>
-      <c r="M115" s="22"/>
+      <c r="M115" s="12"/>
     </row>
     <row r="116" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>112</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>22</v>
@@ -7323,29 +7290,29 @@
       <c r="L116" s="4">
         <v>112</v>
       </c>
-      <c r="M116" s="22"/>
+      <c r="M116" s="12"/>
     </row>
     <row r="117" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>113</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>22</v>
@@ -7362,29 +7329,29 @@
       <c r="L117" s="4">
         <v>113</v>
       </c>
-      <c r="M117" s="22"/>
+      <c r="M117" s="12"/>
     </row>
     <row r="118" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>114</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>22</v>
@@ -7401,29 +7368,29 @@
       <c r="L118" s="4">
         <v>114</v>
       </c>
-      <c r="M118" s="22"/>
+      <c r="M118" s="12"/>
     </row>
     <row r="119" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>115</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H119" s="12" t="s">
         <v>22</v>
@@ -7440,29 +7407,29 @@
       <c r="L119" s="4">
         <v>115</v>
       </c>
-      <c r="M119" s="22"/>
+      <c r="M119" s="12"/>
     </row>
     <row r="120" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <v>116</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H120" s="12" t="s">
         <v>22</v>
@@ -7479,29 +7446,29 @@
       <c r="L120" s="4">
         <v>116</v>
       </c>
-      <c r="M120" s="22"/>
+      <c r="M120" s="12"/>
     </row>
     <row r="121" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>117</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H121" s="12" t="s">
         <v>22</v>
@@ -7518,29 +7485,29 @@
       <c r="L121" s="4">
         <v>117</v>
       </c>
-      <c r="M121" s="22"/>
+      <c r="M121" s="12"/>
     </row>
     <row r="122" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
         <v>118</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>22</v>
@@ -7557,29 +7524,29 @@
       <c r="L122" s="4">
         <v>118</v>
       </c>
-      <c r="M122" s="22"/>
+      <c r="M122" s="12"/>
     </row>
     <row r="123" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>119</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H123" s="12" t="s">
         <v>22</v>
@@ -7596,29 +7563,29 @@
       <c r="L123" s="4">
         <v>119</v>
       </c>
-      <c r="M123" s="22"/>
+      <c r="M123" s="12"/>
     </row>
     <row r="124" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <v>120</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H124" s="12" t="s">
         <v>22</v>
@@ -7635,29 +7602,29 @@
       <c r="L124" s="4">
         <v>120</v>
       </c>
-      <c r="M124" s="22"/>
+      <c r="M124" s="12"/>
     </row>
     <row r="125" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>121</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>22</v>
@@ -7674,29 +7641,29 @@
       <c r="L125" s="4">
         <v>121</v>
       </c>
-      <c r="M125" s="22"/>
+      <c r="M125" s="12"/>
     </row>
     <row r="126" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <v>122</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H126" s="12" t="s">
         <v>22</v>
@@ -7713,29 +7680,29 @@
       <c r="L126" s="4">
         <v>122</v>
       </c>
-      <c r="M126" s="22"/>
+      <c r="M126" s="12"/>
     </row>
     <row r="127" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
         <v>123</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>22</v>
@@ -7752,29 +7719,29 @@
       <c r="L127" s="4">
         <v>123</v>
       </c>
-      <c r="M127" s="22"/>
+      <c r="M127" s="12"/>
     </row>
     <row r="128" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="10">
         <v>124</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H128" s="12" t="s">
         <v>22</v>
@@ -7791,29 +7758,29 @@
       <c r="L128" s="4">
         <v>124</v>
       </c>
-      <c r="M128" s="22"/>
+      <c r="M128" s="12"/>
     </row>
     <row r="129" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <v>125</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>22</v>
@@ -7830,17 +7797,17 @@
       <c r="L129" s="4">
         <v>125</v>
       </c>
-      <c r="M129" s="22"/>
+      <c r="M129" s="12"/>
     </row>
     <row r="130" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="8" t="s">
@@ -7861,29 +7828,29 @@
       </c>
       <c r="K130" s="9"/>
       <c r="L130" s="3"/>
-      <c r="M130" s="21"/>
+      <c r="M130" s="9"/>
     </row>
     <row r="131" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10">
         <v>126</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>22</v>
@@ -7900,8 +7867,8 @@
       <c r="L131" s="4">
         <v>126</v>
       </c>
-      <c r="M131" s="22" t="s">
-        <v>655</v>
+      <c r="M131" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7909,22 +7876,22 @@
         <v>127</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>22</v>
@@ -7941,8 +7908,8 @@
       <c r="L132" s="4">
         <v>127</v>
       </c>
-      <c r="M132" s="22" t="s">
-        <v>655</v>
+      <c r="M132" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7950,22 +7917,22 @@
         <v>128</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>22</v>
@@ -7982,8 +7949,8 @@
       <c r="L133" s="4">
         <v>128</v>
       </c>
-      <c r="M133" s="22" t="s">
-        <v>655</v>
+      <c r="M133" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7991,22 +7958,22 @@
         <v>129</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>22</v>
@@ -8023,8 +7990,8 @@
       <c r="L134" s="4">
         <v>129</v>
       </c>
-      <c r="M134" s="22" t="s">
-        <v>655</v>
+      <c r="M134" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8032,22 +7999,22 @@
         <v>130</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H135" s="12" t="s">
         <v>22</v>
@@ -8064,8 +8031,8 @@
       <c r="L135" s="4">
         <v>130</v>
       </c>
-      <c r="M135" s="22" t="s">
-        <v>655</v>
+      <c r="M135" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8073,22 +8040,22 @@
         <v>131</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H136" s="12" t="s">
         <v>22</v>
@@ -8105,8 +8072,8 @@
       <c r="L136" s="4">
         <v>131</v>
       </c>
-      <c r="M136" s="22" t="s">
-        <v>655</v>
+      <c r="M136" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8114,22 +8081,22 @@
         <v>132</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H137" s="12" t="s">
         <v>22</v>
@@ -8146,8 +8113,8 @@
       <c r="L137" s="4">
         <v>132</v>
       </c>
-      <c r="M137" s="22" t="s">
-        <v>655</v>
+      <c r="M137" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8155,22 +8122,22 @@
         <v>133</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H138" s="12" t="s">
         <v>22</v>
@@ -8187,8 +8154,8 @@
       <c r="L138" s="4">
         <v>133</v>
       </c>
-      <c r="M138" s="27" t="s">
-        <v>652</v>
+      <c r="M138" s="24" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8196,22 +8163,22 @@
         <v>134</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H139" s="12" t="s">
         <v>22</v>
@@ -8228,8 +8195,8 @@
       <c r="L139" s="4">
         <v>134</v>
       </c>
-      <c r="M139" s="22" t="s">
-        <v>655</v>
+      <c r="M139" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8237,22 +8204,22 @@
         <v>135</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>22</v>
@@ -8269,8 +8236,8 @@
       <c r="L140" s="4">
         <v>135</v>
       </c>
-      <c r="M140" s="22" t="s">
-        <v>655</v>
+      <c r="M140" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8278,22 +8245,22 @@
         <v>136</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>22</v>
@@ -8310,8 +8277,8 @@
       <c r="L141" s="4">
         <v>136</v>
       </c>
-      <c r="M141" s="22" t="s">
-        <v>655</v>
+      <c r="M141" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8319,22 +8286,22 @@
         <v>137</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>22</v>
@@ -8351,8 +8318,8 @@
       <c r="L142" s="4">
         <v>137</v>
       </c>
-      <c r="M142" s="22" t="s">
-        <v>655</v>
+      <c r="M142" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8360,22 +8327,22 @@
         <v>138</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H143" s="12" t="s">
         <v>22</v>
@@ -8392,8 +8359,8 @@
       <c r="L143" s="4">
         <v>138</v>
       </c>
-      <c r="M143" s="22" t="s">
-        <v>655</v>
+      <c r="M143" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8401,22 +8368,22 @@
         <v>139</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H144" s="12" t="s">
         <v>22</v>
@@ -8433,19 +8400,19 @@
       <c r="L144" s="4">
         <v>139</v>
       </c>
-      <c r="M144" s="22" t="s">
-        <v>655</v>
+      <c r="M144" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="8" t="s">
@@ -8466,29 +8433,29 @@
       </c>
       <c r="K145" s="9"/>
       <c r="L145" s="3"/>
-      <c r="M145" s="21"/>
+      <c r="M145" s="9"/>
     </row>
     <row r="146" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="10">
         <v>140</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H146" s="12" t="s">
         <v>22</v>
@@ -8505,8 +8472,8 @@
       <c r="L146" s="4">
         <v>140</v>
       </c>
-      <c r="M146" s="22" t="s">
-        <v>655</v>
+      <c r="M146" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8514,22 +8481,22 @@
         <v>141</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H147" s="12" t="s">
         <v>22</v>
@@ -8546,8 +8513,8 @@
       <c r="L147" s="4">
         <v>141</v>
       </c>
-      <c r="M147" s="22" t="s">
-        <v>655</v>
+      <c r="M147" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8555,22 +8522,22 @@
         <v>142</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H148" s="12" t="s">
         <v>22</v>
@@ -8587,8 +8554,8 @@
       <c r="L148" s="4">
         <v>142</v>
       </c>
-      <c r="M148" s="22" t="s">
-        <v>655</v>
+      <c r="M148" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8596,22 +8563,22 @@
         <v>143</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H149" s="12" t="s">
         <v>22</v>
@@ -8628,8 +8595,8 @@
       <c r="L149" s="4">
         <v>143</v>
       </c>
-      <c r="M149" s="22" t="s">
-        <v>655</v>
+      <c r="M149" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8637,22 +8604,22 @@
         <v>144</v>
       </c>
       <c r="B150" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="C150" s="11" t="s">
-        <v>573</v>
-      </c>
       <c r="D150" s="11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H150" s="12" t="s">
         <v>22</v>
@@ -8669,8 +8636,8 @@
       <c r="L150" s="4">
         <v>144</v>
       </c>
-      <c r="M150" s="22" t="s">
-        <v>655</v>
+      <c r="M150" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8678,22 +8645,22 @@
         <v>145</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H151" s="12" t="s">
         <v>22</v>
@@ -8710,8 +8677,8 @@
       <c r="L151" s="4">
         <v>145</v>
       </c>
-      <c r="M151" s="22" t="s">
-        <v>655</v>
+      <c r="M151" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8719,22 +8686,22 @@
         <v>146</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H152" s="12" t="s">
         <v>22</v>
@@ -8751,8 +8718,8 @@
       <c r="L152" s="4">
         <v>146</v>
       </c>
-      <c r="M152" s="22" t="s">
-        <v>655</v>
+      <c r="M152" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8760,22 +8727,22 @@
         <v>147</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H153" s="12" t="s">
         <v>22</v>
@@ -8792,19 +8759,19 @@
       <c r="L153" s="4">
         <v>147</v>
       </c>
-      <c r="M153" s="22" t="s">
-        <v>655</v>
+      <c r="M153" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="8" t="s">
@@ -8825,29 +8792,29 @@
       </c>
       <c r="K154" s="9"/>
       <c r="L154" s="3"/>
-      <c r="M154" s="21"/>
+      <c r="M154" s="9"/>
     </row>
     <row r="155" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10">
         <v>148</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E155" s="11" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>22</v>
@@ -8864,8 +8831,8 @@
       <c r="L155" s="4">
         <v>148</v>
       </c>
-      <c r="M155" s="27" t="s">
-        <v>652</v>
+      <c r="M155" s="24" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8873,22 +8840,22 @@
         <v>149</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E156" s="11" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H156" s="12" t="s">
         <v>22</v>
@@ -8905,8 +8872,8 @@
       <c r="L156" s="4">
         <v>149</v>
       </c>
-      <c r="M156" s="22" t="s">
-        <v>655</v>
+      <c r="M156" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8914,22 +8881,22 @@
         <v>150</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E157" s="11" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H157" s="12" t="s">
         <v>22</v>
@@ -8946,8 +8913,8 @@
       <c r="L157" s="4">
         <v>150</v>
       </c>
-      <c r="M157" s="22" t="s">
-        <v>655</v>
+      <c r="M157" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8955,22 +8922,22 @@
         <v>151</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E158" s="11" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G158" s="11" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H158" s="12" t="s">
         <v>22</v>
@@ -8987,8 +8954,8 @@
       <c r="L158" s="4">
         <v>151</v>
       </c>
-      <c r="M158" s="22" t="s">
-        <v>655</v>
+      <c r="M158" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8996,22 +8963,22 @@
         <v>152</v>
       </c>
       <c r="B159" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E159" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="C159" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="E159" s="11" t="s">
-        <v>599</v>
-      </c>
       <c r="F159" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H159" s="12" t="s">
         <v>22</v>
@@ -9028,8 +8995,8 @@
       <c r="L159" s="4">
         <v>152</v>
       </c>
-      <c r="M159" s="22" t="s">
-        <v>655</v>
+      <c r="M159" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9037,22 +9004,22 @@
         <v>153</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E160" s="11" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G160" s="11" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H160" s="12" t="s">
         <v>22</v>
@@ -9069,8 +9036,8 @@
       <c r="L160" s="4">
         <v>153</v>
       </c>
-      <c r="M160" s="22" t="s">
-        <v>655</v>
+      <c r="M160" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9078,22 +9045,22 @@
         <v>154</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H161" s="12" t="s">
         <v>22</v>
@@ -9110,83 +9077,83 @@
       <c r="L161" s="4">
         <v>154</v>
       </c>
-      <c r="M161" s="22" t="s">
-        <v>655</v>
+      <c r="M161" s="12" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="18" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E154">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="duplicateValues" dxfId="12" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J106">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="26" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J108:J109">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111:J129">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="23" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="24" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J131:J144">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J146:J153">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J155:J161">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J155:J161 J108:J109 J146:J153 J111:J129 J131:J144 J3:J106" xr:uid="{94536AF8-B0B3-4690-A59B-64F66E932AAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J131:J144 J155:J161 J146:J153 J108:J109 J111:J129 J3:J106" xr:uid="{94536AF8-B0B3-4690-A59B-64F66E932AAC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9197,91 +9164,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDFB2D7-B570-487A-97F8-4F907F488087}">
-  <dimension ref="A1:CO4"/>
+  <dimension ref="A1:CL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BK3" sqref="BK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.109375" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="18" customWidth="1"/>
-    <col min="11" max="14" width="10.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="18" customWidth="1"/>
-    <col min="16" max="17" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="20.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="16.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="19.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.109375" style="18" customWidth="1"/>
-    <col min="30" max="30" width="11.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18" style="18" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21" style="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="23" style="18" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="25.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="34.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="23.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21" style="18" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="32.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="25.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="32.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="31" style="18" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="13.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="18.21875" style="18" customWidth="1"/>
-    <col min="62" max="62" width="16.33203125" style="18" customWidth="1"/>
-    <col min="63" max="66" width="17.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22" style="18" bestFit="1" customWidth="1"/>
-    <col min="68" max="70" width="25.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="18" customWidth="1"/>
+    <col min="10" max="13" width="10.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="18" customWidth="1"/>
+    <col min="15" max="16" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="28.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.109375" style="18" customWidth="1"/>
+    <col min="29" max="29" width="11.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18" style="18" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21" style="18" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23" style="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="34.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21" style="18" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="31" style="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="13.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="18.21875" style="18" customWidth="1"/>
+    <col min="59" max="59" width="16.33203125" style="18" customWidth="1"/>
+    <col min="60" max="63" width="17.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22" style="18" bestFit="1" customWidth="1"/>
+    <col min="65" max="67" width="25.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="22.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="10.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="22.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="77" max="80" width="20.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="19.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="23.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="17.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="17.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="16.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="8.88671875" style="18"/>
+    <col min="74" max="77" width="20.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="19.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="23.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="85" max="86" width="17.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="17.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="91" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:90" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>330</v>
       </c>
@@ -9310,13 +9274,13 @@
         <v>338</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M1" s="14" t="s">
         <v>349</v>
@@ -9325,34 +9289,34 @@
         <v>350</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>353</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R1" s="14" t="s">
         <v>356</v>
       </c>
       <c r="S1" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="T1" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>362</v>
-      </c>
       <c r="V1" s="14" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y1" s="14" t="s">
         <v>369</v>
@@ -9364,13 +9328,13 @@
         <v>373</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AC1" s="14" t="s">
         <v>376</v>
       </c>
       <c r="AD1" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AE1" s="14" t="s">
         <v>379</v>
@@ -9379,154 +9343,154 @@
         <v>381</v>
       </c>
       <c r="AG1" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH1" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="AI1" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="AN1" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="AK1" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="AL1" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
         <v>394</v>
-      </c>
-      <c r="AN1" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="AO1" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="AP1" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AQ1" s="14" t="s">
-        <v>400</v>
       </c>
       <c r="AR1" s="14" t="s">
         <v>396</v>
       </c>
       <c r="AS1" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AT1" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AU1" s="14" t="s">
         <v>402</v>
       </c>
       <c r="AV1" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW1" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="AX1" s="14" t="s">
         <v>405</v>
-      </c>
-      <c r="AX1" s="14" t="s">
-        <v>414</v>
       </c>
       <c r="AY1" s="14" t="s">
         <v>407</v>
       </c>
       <c r="AZ1" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BA1" s="14" t="s">
         <v>411</v>
       </c>
       <c r="BB1" s="14" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="BC1" s="14" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="BD1" s="14" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="BE1" s="14" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="BF1" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="BI1" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="BG1" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="BH1" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="BI1" s="14" t="s">
-        <v>451</v>
-      </c>
       <c r="BJ1" s="14" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="BK1" s="14" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="BL1" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="BM1" s="14" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="BN1" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="BO1" s="14" t="s">
         <v>431</v>
       </c>
       <c r="BP1" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BQ1" s="14" t="s">
-        <v>437</v>
+        <v>3</v>
       </c>
       <c r="BR1" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BS1" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BT1" s="14" t="s">
-        <v>3</v>
+        <v>443</v>
       </c>
       <c r="BU1" s="14" t="s">
         <v>444</v>
       </c>
       <c r="BV1" s="14" t="s">
-        <v>446</v>
+        <v>614</v>
       </c>
       <c r="BW1" s="14" t="s">
-        <v>449</v>
+        <v>615</v>
       </c>
       <c r="BX1" s="14" t="s">
-        <v>450</v>
+        <v>619</v>
       </c>
       <c r="BY1" s="14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="BZ1" s="14" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="CA1" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="CB1" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="CB1" s="14" t="s">
-        <v>623</v>
-      </c>
       <c r="CC1" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="CD1" s="14" t="s">
         <v>627</v>
-      </c>
-      <c r="CD1" s="14" t="s">
-        <v>626</v>
       </c>
       <c r="CE1" s="14" t="s">
         <v>629</v>
@@ -9535,105 +9499,96 @@
         <v>631</v>
       </c>
       <c r="CG1" s="14" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="CH1" s="14" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="CI1" s="14" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="CJ1" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="CK1" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="CK1" s="14" t="s">
+      <c r="CL1" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="CL1" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="CM1" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="CN1" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="CO1" s="14" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="2" spans="1:93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="F2" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>664</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>355</v>
-      </c>
       <c r="R2" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="S2" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>364</v>
-      </c>
       <c r="V2" s="17" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="W2" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>368</v>
-      </c>
-      <c r="X2" s="17" t="s">
-        <v>367</v>
       </c>
       <c r="Y2" s="17" t="s">
         <v>370</v>
@@ -9642,16 +9597,16 @@
         <v>372</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AB2" s="17" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="AD2" s="29" t="s">
-        <v>663</v>
+        <v>656</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="AE2" s="17" t="s">
         <v>380</v>
@@ -9660,61 +9615,61 @@
         <v>382</v>
       </c>
       <c r="AG2" s="17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AH2" s="17" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="AI2" s="17" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="AJ2" s="17" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="AK2" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="AL2" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="AL2" s="17">
+        <v>100</v>
+      </c>
+      <c r="AM2" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="AN2" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO2" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="AP2" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ2" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="AM2" s="17">
-        <v>100</v>
-      </c>
-      <c r="AN2" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="AO2" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP2" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="AQ2" s="17" t="s">
-        <v>341</v>
-      </c>
       <c r="AR2" s="17" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="AS2" s="17" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="AT2" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AU2" s="17" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="AV2" s="17" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="AW2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="AX2" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="AX2" s="17" t="s">
-        <v>415</v>
-      </c>
       <c r="AY2" s="17" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AZ2" s="17" t="s">
         <v>406</v>
@@ -9723,52 +9678,52 @@
         <v>412</v>
       </c>
       <c r="BB2" s="17" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="BC2" s="17" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="BD2" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="BE2" s="17" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="BF2" s="17" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="BG2" s="17" t="s">
-        <v>421</v>
+        <v>657</v>
       </c>
       <c r="BH2" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BI2" s="17" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="BJ2" s="17" t="s">
-        <v>656</v>
+        <v>451</v>
       </c>
       <c r="BK2" s="17" t="s">
-        <v>430</v>
+        <v>660</v>
       </c>
       <c r="BL2" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="BM2" s="17" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="BN2" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BO2" s="17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="BP2" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="BQ2" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="BR2" s="17" t="s">
         <v>439</v>
@@ -9777,20 +9732,14 @@
         <v>442</v>
       </c>
       <c r="BT2" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BU2" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="BV2" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="BW2" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="BX2" s="17" t="s">
-        <v>447</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="BV2" s="11"/>
+      <c r="BW2" s="11"/>
+      <c r="BX2" s="11"/>
       <c r="BY2" s="11"/>
       <c r="BZ2" s="11"/>
       <c r="CA2" s="11"/>
@@ -9801,44 +9750,41 @@
       <c r="CF2" s="11"/>
       <c r="CG2" s="11"/>
       <c r="CH2" s="11"/>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="CM2" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="CN2" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="CO2" s="26"/>
-    </row>
-    <row r="3" spans="1:93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="CI2" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="CJ2" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="CK2" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="CL2" s="23"/>
+    </row>
+    <row r="3" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="B3" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>658</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
@@ -9912,29 +9858,26 @@
       <c r="CF3" s="17"/>
       <c r="CG3" s="17"/>
       <c r="CH3" s="17"/>
-      <c r="CI3" s="17"/>
-      <c r="CJ3" s="17"/>
-      <c r="CK3" s="17"/>
+      <c r="CI3" s="11"/>
+      <c r="CJ3" s="11"/>
+      <c r="CK3" s="11"/>
       <c r="CL3" s="11"/>
-      <c r="CM3" s="11"/>
-      <c r="CN3" s="11"/>
-      <c r="CO3" s="11"/>
-    </row>
-    <row r="4" spans="1:93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:90" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>661</v>
+        <v>612</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -10004,23 +9947,29 @@
       <c r="BS4" s="11"/>
       <c r="BT4" s="11"/>
       <c r="BU4" s="11"/>
-      <c r="BV4" s="11"/>
-      <c r="BW4" s="11"/>
-      <c r="BX4" s="11"/>
+      <c r="BV4" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="BW4" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="BX4" s="17" t="s">
+        <v>620</v>
+      </c>
       <c r="BY4" s="17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="BZ4" s="17" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="CA4" s="17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="CB4" s="17" t="s">
         <v>625</v>
       </c>
       <c r="CC4" s="17" t="s">
-        <v>628</v>
+        <v>439</v>
       </c>
       <c r="CD4" s="17" t="s">
         <v>628</v>
@@ -10029,41 +9978,30 @@
         <v>630</v>
       </c>
       <c r="CF4" s="17" t="s">
-        <v>445</v>
+        <v>633</v>
       </c>
       <c r="CG4" s="17" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="CH4" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="CI4" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="CJ4" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="CI4" s="20" t="s">
         <v>642</v>
       </c>
-      <c r="CK4" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="CL4" s="23" t="s">
-        <v>647</v>
-      </c>
-      <c r="CM4" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="CN4" s="16" t="s">
+      <c r="CJ4" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="CK4" s="16" t="s">
         <v>648</v>
       </c>
-      <c r="CO4" s="24" t="s">
+      <c r="CL4" s="16" t="s">
         <v>649</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{3AB5AB6A-6B6C-4277-8807-965616369471}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{CA0A2D40-6D0C-4B0E-998F-BDFC0B7476D4}"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://stg-sakani.housingapps.sa/" xr:uid="{1EAB75BE-CE5E-491F-96CC-AC5DE46C5037}"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://test-partners-sakani.housingapps.sa/" xr:uid="{56446B01-6A9E-4E93-AA79-327FE05E4437}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Run_Manager_Full_Booking_Journey.xlsx
+++ b/src/test/resources/Run_Manager_Full_Booking_Journey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\New_Sakani_TST_Git\Sakani_TST_New\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5931C2B-866D-4CDB-866F-12478B63FB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A0F0DC-AB53-476C-A2CB-0A9DAAAFF8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2148" windowWidth="18756" windowHeight="10092" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="669">
   <si>
     <t>P_Key</t>
   </si>
@@ -965,9 +965,6 @@
     <t>Full Booking Journey_TC_97</t>
   </si>
   <si>
-    <t>Verify the Status of approval for publication of classifications for the unit model is Unpublished</t>
-  </si>
-  <si>
     <t>TC_98_Full_Booking_Journey</t>
   </si>
   <si>
@@ -1001,9 +998,6 @@
     <t>Full Booking Journey_TC_101</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify project sales contract is not approved </t>
-  </si>
-  <si>
     <t>TC_102_Full_Booking_Journey</t>
   </si>
   <si>
@@ -1082,9 +1076,6 @@
     <t>Region_AR</t>
   </si>
   <si>
-    <t>Makkah</t>
-  </si>
-  <si>
     <t>City_EN</t>
   </si>
   <si>
@@ -1112,9 +1103,6 @@
     <t>MegaProject_Type_AR</t>
   </si>
   <si>
-    <t>Land Project</t>
-  </si>
-  <si>
     <t>WAFi_Expiry_Date</t>
   </si>
   <si>
@@ -1343,9 +1331,6 @@
     <t>Word_Attachment</t>
   </si>
   <si>
-    <t>/src/main/resources/Sample word file .docx</t>
-  </si>
-  <si>
     <t>Booking_Template_Type_EN</t>
   </si>
   <si>
@@ -1455,12 +1440,6 @@
   </si>
   <si>
     <t>Full Booking Journey_TC_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify user is able to navigate to Project details page after seacrhed project is displayed </t>
-  </si>
-  <si>
-    <t>Verify user is able to navigate Units list page form Project details page</t>
   </si>
   <si>
     <t xml:space="preserve">Verify user is able to navigate to The Financial Advisory service page </t>
@@ -1985,33 +1964,21 @@
     <t>Salary_Bank_Type_EN</t>
   </si>
   <si>
-    <t>البنك العربي الوطني</t>
-  </si>
-  <si>
     <t>OtherAllowance</t>
   </si>
   <si>
     <t>HousingAllowance</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
     <t>FinancialSaving</t>
   </si>
   <si>
-    <t>5000000</t>
-  </si>
-  <si>
     <t>DownPayment</t>
   </si>
   <si>
     <t>MonthlyCommitment</t>
   </si>
   <si>
-    <t>3000</t>
-  </si>
-  <si>
     <t>Duration_Of_Commitment</t>
   </si>
   <si>
@@ -2024,9 +1991,6 @@
     <t/>
   </si>
   <si>
-    <t>Off Plan</t>
-  </si>
-  <si>
     <t>For All</t>
   </si>
   <si>
@@ -2054,61 +2018,103 @@
     <t>4464040000000007</t>
   </si>
   <si>
-    <t>07/24</t>
-  </si>
-  <si>
-    <t>222</t>
+    <t>Verify functionality of Confirm Rejection button on Reject sales contract page</t>
+  </si>
+  <si>
+    <t>Verify funtionality of Reject button</t>
+  </si>
+  <si>
+    <t>/src/main/resources/units/Offplan_MOH.xlsx</t>
+  </si>
+  <si>
+    <t>https://test-sakani.housingapps.sa</t>
+  </si>
+  <si>
+    <t>https://test-admin-sakani.housingapps.sa</t>
+  </si>
+  <si>
+    <t>Aa123456@</t>
+  </si>
+  <si>
+    <t>1076196383</t>
+  </si>
+  <si>
+    <t>super_admin@test1-admin-sakani.housingapps.sa</t>
+  </si>
+  <si>
+    <t>12/52</t>
+  </si>
+  <si>
+    <t>qewwe</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Off Plan/تحت الإنشاء</t>
+  </si>
+  <si>
+    <t>Basic_Salary</t>
+  </si>
+  <si>
+    <t>SABB Bank</t>
+  </si>
+  <si>
+    <t>Bank Alrajhi</t>
+  </si>
+  <si>
+    <t>مكة المكرمة</t>
+  </si>
+  <si>
+    <t>جدة</t>
+  </si>
+  <si>
+    <t>Makkah</t>
+  </si>
+  <si>
+    <t>JEDDAH</t>
+  </si>
+  <si>
+    <t>Tabuk mega project</t>
+  </si>
+  <si>
+    <t>Verify admin is able to turn on/off Using general booking fee setting  radio button in Project Setting section after selecting Project Type</t>
+  </si>
+  <si>
+    <t>/src/main/resources/Sakani.docx</t>
+  </si>
+  <si>
+    <t>Verify the Status of approval for publication of classifications for the unit model is Published</t>
+  </si>
+  <si>
+    <t>Verify project is published</t>
+  </si>
+  <si>
+    <t>User approves the sale contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin publish </t>
+  </si>
+  <si>
+    <t>Admin publishes the project</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Test name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execution Is pending because it can't be executed on guest netwrok </t>
-  </si>
-  <si>
-    <t>Verify functionality of Confirm Rejection button on Reject sales contract page</t>
-  </si>
-  <si>
-    <t>Verify funtionality of Reject button</t>
-  </si>
-  <si>
-    <t>Executed</t>
-  </si>
-  <si>
-    <t>/src/main/resources/units/Offplan_MOH.xlsx</t>
-  </si>
-  <si>
-    <t>https://test-sakani.housingapps.sa</t>
-  </si>
-  <si>
-    <t>https://test-partners-sakani.housingapps.sa</t>
-  </si>
-  <si>
-    <t>https://test-admin-sakani.housingapps.sa</t>
-  </si>
-  <si>
-    <t>Aa123456@</t>
-  </si>
-  <si>
-    <t>1076196383</t>
-  </si>
-  <si>
-    <t>super_admin@test1-admin-sakani.housingapps.sa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank خلود النابلسي 1718704266
- 'Bank خلود النابلسي 1718704266Bank خلود النابلسي 1718704266
- Bank خلود النابلسي 1718704266
- </t>
-  </si>
-  <si>
-    <t>الخرج</t>
-  </si>
-  <si>
-    <t>الرياض</t>
+    <t>https://test-partners-sakani.housingapps.sa/auth</t>
+  </si>
+  <si>
+    <t>9,000</t>
+  </si>
+  <si>
+    <t>1,500</t>
+  </si>
+  <si>
+    <t>50,000</t>
+  </si>
+  <si>
+    <t>1,000</t>
   </si>
 </sst>
 </file>
@@ -2354,8 +2360,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2801,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView topLeftCell="D30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M138" sqref="M138"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J131" sqref="J131:J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4232,7 +4238,7 @@
         <v>124</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>124</v>
+        <v>656</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>125</v>
@@ -4523,7 +4529,7 @@
         <v>23</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K44" s="12">
         <v>1</v>
@@ -4562,7 +4568,7 @@
         <v>23</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K45" s="12">
         <v>1</v>
@@ -4601,7 +4607,7 @@
         <v>23</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K46" s="12">
         <v>1</v>
@@ -4640,7 +4646,7 @@
         <v>23</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K47" s="12">
         <v>1</v>
@@ -4679,7 +4685,7 @@
         <v>23</v>
       </c>
       <c r="J48" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K48" s="12">
         <v>1</v>
@@ -4718,7 +4724,7 @@
         <v>23</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K49" s="12">
         <v>1</v>
@@ -4757,7 +4763,7 @@
         <v>23</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K50" s="12">
         <v>1</v>
@@ -4796,7 +4802,7 @@
         <v>23</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K51" s="12">
         <v>1</v>
@@ -4835,7 +4841,7 @@
         <v>23</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K52" s="12">
         <v>1</v>
@@ -4874,7 +4880,7 @@
         <v>23</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K53" s="12">
         <v>1</v>
@@ -4913,7 +4919,7 @@
         <v>23</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K54" s="12">
         <v>1</v>
@@ -4952,7 +4958,7 @@
         <v>23</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K55" s="12">
         <v>1</v>
@@ -4991,7 +4997,7 @@
         <v>23</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K56" s="12">
         <v>1</v>
@@ -5030,7 +5036,7 @@
         <v>23</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K57" s="12">
         <v>1</v>
@@ -5069,7 +5075,7 @@
         <v>23</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K58" s="12">
         <v>1</v>
@@ -5108,7 +5114,7 @@
         <v>23</v>
       </c>
       <c r="J59" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K59" s="12">
         <v>1</v>
@@ -5147,7 +5153,7 @@
         <v>23</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K60" s="12">
         <v>1</v>
@@ -5186,7 +5192,7 @@
         <v>23</v>
       </c>
       <c r="J61" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K61" s="12">
         <v>1</v>
@@ -5225,7 +5231,7 @@
         <v>23</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K62" s="12">
         <v>1</v>
@@ -5264,7 +5270,7 @@
         <v>23</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K63" s="12">
         <v>1</v>
@@ -5303,7 +5309,7 @@
         <v>23</v>
       </c>
       <c r="J64" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K64" s="12">
         <v>1</v>
@@ -5321,10 +5327,10 @@
         <v>17</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>209</v>
@@ -5342,7 +5348,7 @@
         <v>23</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K65" s="12">
         <v>1</v>
@@ -5381,7 +5387,7 @@
         <v>23</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K66" s="12">
         <v>1</v>
@@ -5420,7 +5426,7 @@
         <v>23</v>
       </c>
       <c r="J67" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K67" s="12">
         <v>1</v>
@@ -5459,7 +5465,7 @@
         <v>23</v>
       </c>
       <c r="J68" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K68" s="12">
         <v>1</v>
@@ -5498,7 +5504,7 @@
         <v>23</v>
       </c>
       <c r="J69" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K69" s="12">
         <v>1</v>
@@ -5537,7 +5543,7 @@
         <v>23</v>
       </c>
       <c r="J70" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K70" s="12">
         <v>1</v>
@@ -5576,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="J71" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K71" s="12">
         <v>1</v>
@@ -5615,7 +5621,7 @@
         <v>23</v>
       </c>
       <c r="J72" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K72" s="12">
         <v>1</v>
@@ -5633,10 +5639,10 @@
         <v>17</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>231</v>
@@ -5654,7 +5660,7 @@
         <v>23</v>
       </c>
       <c r="J73" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K73" s="12">
         <v>1</v>
@@ -5693,7 +5699,7 @@
         <v>23</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K74" s="12">
         <v>1</v>
@@ -5711,10 +5717,10 @@
         <v>17</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>236</v>
@@ -5732,7 +5738,7 @@
         <v>23</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K75" s="12">
         <v>1</v>
@@ -5771,7 +5777,7 @@
         <v>23</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K76" s="12">
         <v>1</v>
@@ -5810,7 +5816,7 @@
         <v>23</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K77" s="12">
         <v>1</v>
@@ -5849,7 +5855,7 @@
         <v>23</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K78" s="12">
         <v>1</v>
@@ -5888,7 +5894,7 @@
         <v>23</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K79" s="12">
         <v>1</v>
@@ -5927,7 +5933,7 @@
         <v>23</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K80" s="12">
         <v>1</v>
@@ -5966,7 +5972,7 @@
         <v>23</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K81" s="12">
         <v>1</v>
@@ -6005,7 +6011,7 @@
         <v>23</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K82" s="12">
         <v>1</v>
@@ -6044,7 +6050,7 @@
         <v>23</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K83" s="12">
         <v>1</v>
@@ -6083,7 +6089,7 @@
         <v>23</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K84" s="12">
         <v>1</v>
@@ -6122,7 +6128,7 @@
         <v>23</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K85" s="12">
         <v>1</v>
@@ -6161,7 +6167,7 @@
         <v>23</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K86" s="12">
         <v>1</v>
@@ -6200,7 +6206,7 @@
         <v>23</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K87" s="12">
         <v>1</v>
@@ -6239,7 +6245,7 @@
         <v>23</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K88" s="12">
         <v>1</v>
@@ -6278,7 +6284,7 @@
         <v>23</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K89" s="12">
         <v>1</v>
@@ -6317,7 +6323,7 @@
         <v>23</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K90" s="12">
         <v>1</v>
@@ -6356,7 +6362,7 @@
         <v>23</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K91" s="12">
         <v>1</v>
@@ -6395,7 +6401,7 @@
         <v>23</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K92" s="12">
         <v>1</v>
@@ -6434,7 +6440,7 @@
         <v>23</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K93" s="12">
         <v>1</v>
@@ -6473,7 +6479,7 @@
         <v>23</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K94" s="12">
         <v>1</v>
@@ -6512,7 +6518,7 @@
         <v>23</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K95" s="12">
         <v>1</v>
@@ -6551,7 +6557,7 @@
         <v>23</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K96" s="12">
         <v>1</v>
@@ -6590,7 +6596,7 @@
         <v>23</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K97" s="12">
         <v>1</v>
@@ -6608,10 +6614,10 @@
         <v>17</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>304</v>
@@ -6629,7 +6635,7 @@
         <v>23</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K98" s="12">
         <v>1</v>
@@ -6668,7 +6674,7 @@
         <v>23</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K99" s="12">
         <v>1</v>
@@ -6686,20 +6692,20 @@
         <v>17</v>
       </c>
       <c r="C100" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="E100" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D100" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="E100" s="11" t="s">
+      <c r="F100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="F100" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>311</v>
-      </c>
       <c r="H100" s="12" t="s">
         <v>22</v>
       </c>
@@ -6707,7 +6713,7 @@
         <v>23</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K100" s="12">
         <v>1</v>
@@ -6725,20 +6731,20 @@
         <v>17</v>
       </c>
       <c r="C101" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D101" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="E101" s="11" t="s">
+      <c r="F101" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>314</v>
-      </c>
       <c r="H101" s="12" t="s">
         <v>22</v>
       </c>
@@ -6746,7 +6752,7 @@
         <v>23</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K101" s="12">
         <v>1</v>
@@ -6764,20 +6770,20 @@
         <v>17</v>
       </c>
       <c r="C102" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="D102" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E102" s="11" t="s">
+      <c r="F102" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>317</v>
-      </c>
       <c r="H102" s="12" t="s">
         <v>22</v>
       </c>
@@ -6785,7 +6791,7 @@
         <v>23</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K102" s="12">
         <v>1</v>
@@ -6803,20 +6809,20 @@
         <v>17</v>
       </c>
       <c r="C103" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E103" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D103" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E103" s="11" t="s">
+      <c r="F103" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>320</v>
-      </c>
       <c r="H103" s="12" t="s">
         <v>22</v>
       </c>
@@ -6824,7 +6830,7 @@
         <v>23</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K103" s="12">
         <v>1</v>
@@ -6842,20 +6848,20 @@
         <v>17</v>
       </c>
       <c r="C104" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="D104" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="E104" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>323</v>
-      </c>
       <c r="H104" s="12" t="s">
         <v>22</v>
       </c>
@@ -6863,7 +6869,7 @@
         <v>23</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K104" s="12">
         <v>1</v>
@@ -6881,20 +6887,20 @@
         <v>17</v>
       </c>
       <c r="C105" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D105" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>326</v>
-      </c>
       <c r="H105" s="12" t="s">
         <v>22</v>
       </c>
@@ -6902,7 +6908,7 @@
         <v>23</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K105" s="12">
         <v>1</v>
@@ -6920,20 +6926,20 @@
         <v>17</v>
       </c>
       <c r="C106" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D106" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>329</v>
-      </c>
       <c r="H106" s="12" t="s">
         <v>22</v>
       </c>
@@ -6941,7 +6947,7 @@
         <v>23</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K106" s="12">
         <v>1</v>
@@ -6953,13 +6959,13 @@
     </row>
     <row r="107" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="8" t="s">
@@ -6987,22 +6993,22 @@
         <v>105</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>473</v>
+        <v>660</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>473</v>
+        <v>660</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H108" s="12" t="s">
         <v>22</v>
@@ -7011,7 +7017,7 @@
         <v>23</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K108" s="12">
         <v>1</v>
@@ -7026,22 +7032,22 @@
         <v>106</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>459</v>
+        <v>661</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>474</v>
+        <v>662</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>474</v>
+        <v>662</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>519</v>
+        <v>20</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>22</v>
@@ -7050,7 +7056,7 @@
         <v>23</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>650</v>
+        <v>24</v>
       </c>
       <c r="K109" s="12">
         <v>1</v>
@@ -7062,13 +7068,13 @@
     </row>
     <row r="110" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="8" t="s">
@@ -7096,22 +7102,22 @@
         <v>107</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>22</v>
@@ -7135,22 +7141,22 @@
         <v>108</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>22</v>
@@ -7174,22 +7180,22 @@
         <v>109</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>22</v>
@@ -7213,22 +7219,22 @@
         <v>110</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H114" s="12" t="s">
         <v>22</v>
@@ -7252,22 +7258,22 @@
         <v>111</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>22</v>
@@ -7291,22 +7297,22 @@
         <v>112</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>22</v>
@@ -7330,22 +7336,22 @@
         <v>113</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>22</v>
@@ -7369,22 +7375,22 @@
         <v>114</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>22</v>
@@ -7408,22 +7414,22 @@
         <v>115</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="H119" s="12" t="s">
         <v>22</v>
@@ -7447,22 +7453,22 @@
         <v>116</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H120" s="12" t="s">
         <v>22</v>
@@ -7486,22 +7492,22 @@
         <v>117</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H121" s="12" t="s">
         <v>22</v>
@@ -7525,22 +7531,22 @@
         <v>118</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>22</v>
@@ -7564,22 +7570,22 @@
         <v>119</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="H123" s="12" t="s">
         <v>22</v>
@@ -7603,22 +7609,22 @@
         <v>120</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H124" s="12" t="s">
         <v>22</v>
@@ -7642,22 +7648,22 @@
         <v>121</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>22</v>
@@ -7681,22 +7687,22 @@
         <v>122</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="H126" s="12" t="s">
         <v>22</v>
@@ -7720,22 +7726,22 @@
         <v>123</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G127" s="11" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>22</v>
@@ -7759,22 +7765,22 @@
         <v>124</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G128" s="11" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="H128" s="12" t="s">
         <v>22</v>
@@ -7798,22 +7804,22 @@
         <v>125</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>22</v>
@@ -7834,13 +7840,13 @@
     </row>
     <row r="130" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="8" t="s">
@@ -7868,22 +7874,22 @@
         <v>126</v>
       </c>
       <c r="B131" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="C131" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="C131" s="11" t="s">
-        <v>528</v>
-      </c>
       <c r="D131" s="11" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>22</v>
@@ -7900,31 +7906,29 @@
       <c r="L131" s="4">
         <v>126</v>
       </c>
-      <c r="M131" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M131" s="22"/>
     </row>
     <row r="132" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="10">
         <v>127</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>22</v>
@@ -7941,31 +7945,29 @@
       <c r="L132" s="4">
         <v>127</v>
       </c>
-      <c r="M132" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M132" s="22"/>
     </row>
     <row r="133" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
         <v>128</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>22</v>
@@ -7982,31 +7984,29 @@
       <c r="L133" s="4">
         <v>128</v>
       </c>
-      <c r="M133" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M133" s="22"/>
     </row>
     <row r="134" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10">
         <v>129</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>22</v>
@@ -8023,31 +8023,29 @@
       <c r="L134" s="4">
         <v>129</v>
       </c>
-      <c r="M134" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M134" s="22"/>
     </row>
     <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10">
         <v>130</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H135" s="12" t="s">
         <v>22</v>
@@ -8064,31 +8062,29 @@
       <c r="L135" s="4">
         <v>130</v>
       </c>
-      <c r="M135" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M135" s="22"/>
     </row>
     <row r="136" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10">
         <v>131</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="H136" s="12" t="s">
         <v>22</v>
@@ -8097,7 +8093,7 @@
         <v>23</v>
       </c>
       <c r="J136" s="13" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
       <c r="K136" s="12">
         <v>1</v>
@@ -8105,31 +8101,29 @@
       <c r="L136" s="4">
         <v>131</v>
       </c>
-      <c r="M136" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M136" s="22"/>
     </row>
     <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10">
         <v>132</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H137" s="12" t="s">
         <v>22</v>
@@ -8138,7 +8132,7 @@
         <v>23</v>
       </c>
       <c r="J137" s="13" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
       <c r="K137" s="12">
         <v>1</v>
@@ -8146,31 +8140,29 @@
       <c r="L137" s="4">
         <v>132</v>
       </c>
-      <c r="M137" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M137" s="22"/>
     </row>
     <row r="138" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10">
         <v>133</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H138" s="12" t="s">
         <v>22</v>
@@ -8179,7 +8171,7 @@
         <v>23</v>
       </c>
       <c r="J138" s="13" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
       <c r="K138" s="12">
         <v>1</v>
@@ -8187,31 +8179,29 @@
       <c r="L138" s="4">
         <v>133</v>
       </c>
-      <c r="M138" s="27" t="s">
-        <v>652</v>
-      </c>
+      <c r="M138" s="22"/>
     </row>
     <row r="139" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10">
         <v>134</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H139" s="12" t="s">
         <v>22</v>
@@ -8220,7 +8210,7 @@
         <v>23</v>
       </c>
       <c r="J139" s="13" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
       <c r="K139" s="12">
         <v>1</v>
@@ -8228,31 +8218,29 @@
       <c r="L139" s="4">
         <v>134</v>
       </c>
-      <c r="M139" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M139" s="22"/>
     </row>
     <row r="140" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10">
         <v>135</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>22</v>
@@ -8261,7 +8249,7 @@
         <v>23</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
       <c r="K140" s="12">
         <v>1</v>
@@ -8269,31 +8257,29 @@
       <c r="L140" s="4">
         <v>135</v>
       </c>
-      <c r="M140" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M140" s="22"/>
     </row>
     <row r="141" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10">
         <v>136</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>22</v>
@@ -8302,7 +8288,7 @@
         <v>23</v>
       </c>
       <c r="J141" s="13" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
       <c r="K141" s="12">
         <v>1</v>
@@ -8310,31 +8296,29 @@
       <c r="L141" s="4">
         <v>136</v>
       </c>
-      <c r="M141" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M141" s="22"/>
     </row>
     <row r="142" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="10">
         <v>137</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>22</v>
@@ -8343,7 +8327,7 @@
         <v>23</v>
       </c>
       <c r="J142" s="13" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
       <c r="K142" s="12">
         <v>1</v>
@@ -8351,31 +8335,29 @@
       <c r="L142" s="4">
         <v>137</v>
       </c>
-      <c r="M142" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M142" s="22"/>
     </row>
     <row r="143" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="10">
         <v>138</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="H143" s="12" t="s">
         <v>22</v>
@@ -8384,7 +8366,7 @@
         <v>23</v>
       </c>
       <c r="J143" s="13" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
       <c r="K143" s="12">
         <v>1</v>
@@ -8392,31 +8374,29 @@
       <c r="L143" s="4">
         <v>138</v>
       </c>
-      <c r="M143" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M143" s="22"/>
     </row>
     <row r="144" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="10">
         <v>139</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H144" s="12" t="s">
         <v>22</v>
@@ -8425,7 +8405,7 @@
         <v>23</v>
       </c>
       <c r="J144" s="13" t="s">
-        <v>24</v>
+        <v>663</v>
       </c>
       <c r="K144" s="12">
         <v>1</v>
@@ -8433,19 +8413,17 @@
       <c r="L144" s="4">
         <v>139</v>
       </c>
-      <c r="M144" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M144" s="22"/>
     </row>
     <row r="145" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="8" t="s">
@@ -8473,22 +8451,22 @@
         <v>140</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="H146" s="12" t="s">
         <v>22</v>
@@ -8505,31 +8483,29 @@
       <c r="L146" s="4">
         <v>140</v>
       </c>
-      <c r="M146" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M146" s="22"/>
     </row>
     <row r="147" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="10">
         <v>141</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="H147" s="12" t="s">
         <v>22</v>
@@ -8546,31 +8522,29 @@
       <c r="L147" s="4">
         <v>141</v>
       </c>
-      <c r="M147" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M147" s="22"/>
     </row>
     <row r="148" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10">
         <v>142</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="H148" s="12" t="s">
         <v>22</v>
@@ -8587,31 +8561,29 @@
       <c r="L148" s="4">
         <v>142</v>
       </c>
-      <c r="M148" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M148" s="22"/>
     </row>
     <row r="149" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
         <v>143</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E149" s="11" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H149" s="12" t="s">
         <v>22</v>
@@ -8628,31 +8600,29 @@
       <c r="L149" s="4">
         <v>143</v>
       </c>
-      <c r="M149" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M149" s="22"/>
     </row>
     <row r="150" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
         <v>144</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E150" s="11" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="H150" s="12" t="s">
         <v>22</v>
@@ -8669,31 +8639,29 @@
       <c r="L150" s="4">
         <v>144</v>
       </c>
-      <c r="M150" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M150" s="22"/>
     </row>
     <row r="151" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <v>145</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E151" s="11" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="H151" s="12" t="s">
         <v>22</v>
@@ -8710,31 +8678,29 @@
       <c r="L151" s="4">
         <v>145</v>
       </c>
-      <c r="M151" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M151" s="22"/>
     </row>
     <row r="152" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
         <v>146</v>
       </c>
       <c r="B152" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="C152" s="11" t="s">
-        <v>575</v>
-      </c>
       <c r="D152" s="11" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="E152" s="11" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="H152" s="12" t="s">
         <v>22</v>
@@ -8751,31 +8717,29 @@
       <c r="L152" s="4">
         <v>146</v>
       </c>
-      <c r="M152" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M152" s="22"/>
     </row>
     <row r="153" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
         <v>147</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="H153" s="12" t="s">
         <v>22</v>
@@ -8792,19 +8756,17 @@
       <c r="L153" s="4">
         <v>147</v>
       </c>
-      <c r="M153" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M153" s="22"/>
     </row>
     <row r="154" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="8" t="s">
@@ -8832,22 +8794,22 @@
         <v>148</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E155" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G155" s="11" t="s">
         <v>595</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>602</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>22</v>
@@ -8864,31 +8826,29 @@
       <c r="L155" s="4">
         <v>148</v>
       </c>
-      <c r="M155" s="27" t="s">
-        <v>652</v>
-      </c>
+      <c r="M155" s="27"/>
     </row>
     <row r="156" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10">
         <v>149</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="E156" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G156" s="11" t="s">
         <v>596</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G156" s="11" t="s">
-        <v>603</v>
       </c>
       <c r="H156" s="12" t="s">
         <v>22</v>
@@ -8905,31 +8865,29 @@
       <c r="L156" s="4">
         <v>149</v>
       </c>
-      <c r="M156" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M156" s="22"/>
     </row>
     <row r="157" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10">
         <v>150</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E157" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G157" s="11" t="s">
         <v>597</v>
-      </c>
-      <c r="F157" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G157" s="11" t="s">
-        <v>604</v>
       </c>
       <c r="H157" s="12" t="s">
         <v>22</v>
@@ -8946,31 +8904,29 @@
       <c r="L157" s="4">
         <v>150</v>
       </c>
-      <c r="M157" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M157" s="22"/>
     </row>
     <row r="158" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10">
         <v>151</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E158" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G158" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="F158" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>605</v>
       </c>
       <c r="H158" s="12" t="s">
         <v>22</v>
@@ -8987,31 +8943,29 @@
       <c r="L158" s="4">
         <v>151</v>
       </c>
-      <c r="M158" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M158" s="22"/>
     </row>
     <row r="159" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10">
         <v>152</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E159" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G159" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="F159" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G159" s="11" t="s">
-        <v>606</v>
       </c>
       <c r="H159" s="12" t="s">
         <v>22</v>
@@ -9028,31 +8982,29 @@
       <c r="L159" s="4">
         <v>152</v>
       </c>
-      <c r="M159" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M159" s="22"/>
     </row>
     <row r="160" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10">
         <v>153</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E160" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G160" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G160" s="11" t="s">
-        <v>607</v>
       </c>
       <c r="H160" s="12" t="s">
         <v>22</v>
@@ -9069,31 +9021,29 @@
       <c r="L160" s="4">
         <v>153</v>
       </c>
-      <c r="M160" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M160" s="22"/>
     </row>
     <row r="161" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="10">
         <v>154</v>
       </c>
       <c r="B161" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E161" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="C161" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="E161" s="11" t="s">
+      <c r="F161" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G161" s="11" t="s">
         <v>601</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>608</v>
       </c>
       <c r="H161" s="12" t="s">
         <v>22</v>
@@ -9110,9 +9060,7 @@
       <c r="L161" s="4">
         <v>154</v>
       </c>
-      <c r="M161" s="22" t="s">
-        <v>655</v>
-      </c>
+      <c r="M161" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -9186,7 +9134,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J155:J161 J108:J109 J146:J153 J111:J129 J131:J144 J3:J106" xr:uid="{94536AF8-B0B3-4690-A59B-64F66E932AAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J155:J161 J3:J106 J146:J153 J108:J109 J111:J129 J131:J144" xr:uid="{94536AF8-B0B3-4690-A59B-64F66E932AAC}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9197,10 +9145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDFB2D7-B570-487A-97F8-4F907F488087}">
-  <dimension ref="A1:CO4"/>
+  <dimension ref="A1:CP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CL7" sqref="CL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9214,9 +9162,9 @@
     <col min="7" max="7" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.21875" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="29.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="10.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="33.21875" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="20.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.109375" style="18" bestFit="1" customWidth="1"/>
@@ -9226,7 +9174,7 @@
     <col min="25" max="25" width="20.33203125" style="18" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="22.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="19.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.109375" style="18" customWidth="1"/>
+    <col min="29" max="29" width="25.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.21875" style="18" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
@@ -9266,530 +9214,533 @@
     <col min="74" max="75" width="22.77734375" style="18" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="10.109375" style="18" bestFit="1" customWidth="1"/>
     <col min="77" max="80" width="20.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="19.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="23.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="17.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="17.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="16.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="8.88671875" style="18"/>
+    <col min="81" max="82" width="16.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="19.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="23.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="17.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="17.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="16.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="10.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="12.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94" s="15" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>339</v>
-      </c>
       <c r="K1" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="R1" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="V1" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="W1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="X1" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA1" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="AA1" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AE1" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="AC1" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG1" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI1" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="AG1" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="AN1" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="AI1" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="AK1" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="AL1" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS1" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="AN1" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="AO1" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="AP1" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV1" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="AR1" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="AS1" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AW1" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="AU1" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="AV1" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AX1" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="BA1" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="BE1" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="AY1" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="AZ1" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="BA1" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="BB1" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="BC1" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="BD1" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="BE1" s="14" t="s">
-        <v>418</v>
-      </c>
       <c r="BF1" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="BK1" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="BG1" s="14" t="s">
+      <c r="BL1" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="BH1" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="BI1" s="14" t="s">
+      <c r="BM1" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="BJ1" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="BK1" s="14" t="s">
+      <c r="BN1" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="BO1" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="BL1" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="BM1" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="BN1" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="BO1" s="14" t="s">
+      <c r="BP1" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="BP1" s="14" t="s">
+      <c r="BQ1" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="BR1" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="BS1" s="14" t="s">
         <v>436</v>
-      </c>
-      <c r="BQ1" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="BR1" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="BS1" s="14" t="s">
-        <v>441</v>
       </c>
       <c r="BT1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="BU1" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="BV1" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="BW1" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="BV1" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="BW1" s="14" t="s">
-        <v>449</v>
-      </c>
       <c r="BX1" s="14" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="BY1" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="BZ1" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="CA1" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="CB1" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="CC1" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="CD1" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="BZ1" s="14" t="s">
+      <c r="CE1" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="CF1" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="CA1" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="CB1" s="14" t="s">
+      <c r="CG1" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="CH1" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="CI1" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="CC1" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="CD1" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="CE1" s="14" t="s">
+      <c r="CJ1" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="CK1" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="CL1" s="14" t="s">
         <v>629</v>
       </c>
-      <c r="CF1" s="14" t="s">
+      <c r="CM1" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="CG1" s="14" t="s">
+      <c r="CN1" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="CH1" s="14" t="s">
+      <c r="CO1" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="CP1" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="CI1" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="CJ1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="CK1" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="CL1" s="14" t="s">
+      <c r="C2" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="CM1" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="CN1" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="CO1" s="14" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="2" spans="1:93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="D2" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>659</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="H2" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="I2" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>345</v>
-      </c>
       <c r="K2" s="16" t="s">
-        <v>348</v>
+        <v>653</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>348</v>
+        <v>654</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="O2" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="P2" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="P2" s="17" t="s">
-        <v>355</v>
-      </c>
       <c r="Q2" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>358</v>
+        <v>655</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>358</v>
+        <v>655</v>
       </c>
       <c r="T2" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="X2" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="U2" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="V2" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="W2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z2" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="X2" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y2" s="17" t="s">
+      <c r="AA2" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="Z2" s="17" t="s">
-        <v>372</v>
-      </c>
-      <c r="AA2" s="17" t="s">
-        <v>374</v>
-      </c>
       <c r="AB2" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AC2" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="AD2" s="29" t="s">
-        <v>663</v>
+        <v>373</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>650</v>
       </c>
       <c r="AE2" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG2" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="AF2" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG2" s="17" t="s">
-        <v>384</v>
-      </c>
       <c r="AH2" s="17" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AI2" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ2" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AK2" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL2" s="17" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AM2" s="17">
         <v>100</v>
       </c>
       <c r="AN2" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AO2" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AP2" s="17" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AQ2" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AR2" s="17" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AS2" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AT2" s="17" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AU2" s="17" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AV2" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AX2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="AY2" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="AZ2" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="BA2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="BB2" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="BC2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="BD2" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="BE2" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="AY2" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="AZ2" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="BA2" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="BB2" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="BC2" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BF2" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="BG2" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="BE2" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="BF2" s="17" t="s">
+      <c r="BH2" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="BG2" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BI2" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="BJ2" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="BK2" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="BI2" s="17" t="s">
+      <c r="BL2" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="BM2" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="BJ2" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="BK2" s="17" t="s">
-        <v>430</v>
-      </c>
-      <c r="BL2" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="BM2" s="17" t="s">
-        <v>457</v>
-      </c>
       <c r="BN2" s="17" t="s">
-        <v>435</v>
+        <v>657</v>
       </c>
       <c r="BO2" s="17" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="BP2" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="BQ2" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="BR2" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="BS2" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="BT2" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="BQ2" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="BR2" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="BS2" s="17" t="s">
+      <c r="BU2" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="BV2" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="BW2" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="BX2" s="17" t="s">
         <v>442</v>
-      </c>
-      <c r="BT2" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="BU2" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="BV2" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="BW2" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="BX2" s="17" t="s">
-        <v>447</v>
       </c>
       <c r="BY2" s="11"/>
       <c r="BZ2" s="11"/>
@@ -9804,32 +9755,33 @@
       <c r="CI2" s="11"/>
       <c r="CJ2" s="11"/>
       <c r="CK2" s="11"/>
-      <c r="CL2" s="24" t="s">
-        <v>637</v>
-      </c>
+      <c r="CL2" s="11"/>
       <c r="CM2" s="24" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="CN2" s="24" t="s">
-        <v>637</v>
-      </c>
-      <c r="CO2" s="26"/>
-    </row>
-    <row r="3" spans="1:93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+      <c r="CO2" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="CP2" s="26"/>
+    </row>
+    <row r="3" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -9915,26 +9867,27 @@
       <c r="CI3" s="17"/>
       <c r="CJ3" s="17"/>
       <c r="CK3" s="17"/>
-      <c r="CL3" s="11"/>
+      <c r="CL3" s="17"/>
       <c r="CM3" s="11"/>
       <c r="CN3" s="11"/>
       <c r="CO3" s="11"/>
-    </row>
-    <row r="4" spans="1:93" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="CP3" s="11"/>
+    </row>
+    <row r="4" spans="1:94" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -10008,55 +9961,58 @@
       <c r="BW4" s="11"/>
       <c r="BX4" s="11"/>
       <c r="BY4" s="17" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="BZ4" s="17" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="CA4" s="17" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="CB4" s="17" t="s">
-        <v>625</v>
-      </c>
-      <c r="CC4" s="17" t="s">
-        <v>628</v>
+        <v>649</v>
+      </c>
+      <c r="CC4" s="29" t="s">
+        <v>665</v>
       </c>
       <c r="CD4" s="17" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="CE4" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="CF4" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="CG4" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="CH4" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="CI4" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="CJ4" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="CK4" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="CF4" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="CG4" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="CH4" s="17" t="s">
+      <c r="CL4" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="CM4" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="CI4" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="CJ4" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="CK4" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="CL4" s="23" t="s">
-        <v>647</v>
-      </c>
-      <c r="CM4" s="11" t="s">
-        <v>651</v>
-      </c>
       <c r="CN4" s="16" t="s">
-        <v>648</v>
-      </c>
-      <c r="CO4" s="24" t="s">
-        <v>649</v>
+        <v>646</v>
+      </c>
+      <c r="CO4" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="CP4" s="16" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>
